--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_13_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_13_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1585427.306023773</v>
+        <v>1584215.605275587</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>907063.5773006276</v>
+        <v>907063.57730063</v>
       </c>
     </row>
     <row r="9">
@@ -737,73 +737,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="C3" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>36.39025468426208</v>
+      </c>
+      <c r="X3" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>41.31500304752735</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="T4" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>15.18661160258025</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -974,76 +974,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="C6" t="n">
-        <v>36.39025468426208</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="E6" t="n">
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="F6" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1059,23 +1059,23 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E7" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="F7" t="n">
-        <v>36.39025468426209</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1220,64 +1220,64 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="G9" t="n">
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="H9" t="n">
+      <c r="W9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1293,22 +1293,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>15.18661160258025</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>321.9027362441541</v>
       </c>
       <c r="G11" t="n">
         <v>396.5836142728854</v>
       </c>
       <c r="H11" t="n">
-        <v>248.669622650987</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>64.57991364897669</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T11" t="n">
         <v>214.3635095521018</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.5660605529466</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1548,7 +1548,7 @@
         <v>135.3116756443242</v>
       </c>
       <c r="I13" t="n">
-        <v>76.97845642156351</v>
+        <v>76.97845642156406</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>5.063515415806592</v>
+        <v>5.063515415806584</v>
       </c>
       <c r="S13" t="n">
         <v>151.3932686552011</v>
@@ -1584,7 +1584,7 @@
         <v>241.8869156041224</v>
       </c>
       <c r="U13" t="n">
-        <v>275.629091126406</v>
+        <v>275.6290911264066</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>56.45128697045716</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1618,13 +1618,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>41.63600807102495</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>396.5836142728854</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>278.0434075022746</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T14" t="n">
         <v>214.3635095521018</v>
@@ -1666,7 +1666,7 @@
         <v>256.5660605529466</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1785,7 +1785,7 @@
         <v>135.3116756443242</v>
       </c>
       <c r="I16" t="n">
-        <v>76.97845642156405</v>
+        <v>76.97845642156406</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>5.063515415806592</v>
+        <v>5.063515415806584</v>
       </c>
       <c r="S16" t="n">
         <v>151.3932686552011</v>
@@ -1821,7 +1821,7 @@
         <v>241.8869156041224</v>
       </c>
       <c r="U16" t="n">
-        <v>275.629091126406</v>
+        <v>275.6290911264061</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>64.57991364897681</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T17" t="n">
         <v>214.3635095521018</v>
@@ -1906,7 +1906,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430781</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>189.9004325317975</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>5.063515415806592</v>
+        <v>5.063515415806584</v>
       </c>
       <c r="S19" t="n">
         <v>151.3932686552011</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>64.57991364897669</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T20" t="n">
-        <v>214.3635095521021</v>
+        <v>214.3635095521018</v>
       </c>
       <c r="U20" t="n">
         <v>256.5660605529466</v>
@@ -2149,7 +2149,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633446</v>
       </c>
     </row>
     <row r="21">
@@ -2256,7 +2256,7 @@
         <v>163.5764026524035</v>
       </c>
       <c r="H22" t="n">
-        <v>135.3116756443242</v>
+        <v>135.3116756443241</v>
       </c>
       <c r="I22" t="n">
         <v>76.97845642156406</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>5.063515415806592</v>
+        <v>5.063515415806584</v>
       </c>
       <c r="S22" t="n">
         <v>151.3932686552011</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>64.57991364897669</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T23" t="n">
-        <v>214.3635095521018</v>
+        <v>214.3635095521021</v>
       </c>
       <c r="U23" t="n">
         <v>256.5660605529467</v>
@@ -2490,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.5764026524035</v>
+        <v>163.5764026524034</v>
       </c>
       <c r="H25" t="n">
         <v>135.3116756443242</v>
       </c>
       <c r="I25" t="n">
-        <v>76.97845642156406</v>
+        <v>76.97845642156405</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>5.063515415806592</v>
+        <v>5.063515415806584</v>
       </c>
       <c r="S25" t="n">
         <v>151.3932686552011</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>64.57991364897669</v>
+        <v>64.57991364897681</v>
       </c>
       <c r="T26" t="n">
-        <v>214.3635095521012</v>
+        <v>214.3635095521018</v>
       </c>
       <c r="U26" t="n">
-        <v>256.5660605529476</v>
+        <v>256.5660605529467</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -2733,7 +2733,7 @@
         <v>135.3116756443242</v>
       </c>
       <c r="I28" t="n">
-        <v>76.97845642156406</v>
+        <v>76.97845642156405</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>5.06351541580615</v>
+        <v>5.063515415806584</v>
       </c>
       <c r="S28" t="n">
         <v>151.3932686552011</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>64.57991364897669</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T29" t="n">
         <v>214.3635095521018</v>
       </c>
       <c r="U29" t="n">
-        <v>256.5660605529466</v>
+        <v>256.5660605529467</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -2970,7 +2970,7 @@
         <v>135.3116756443242</v>
       </c>
       <c r="I31" t="n">
-        <v>76.97845642156406</v>
+        <v>76.97845642156405</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>5.063515415806592</v>
+        <v>5.063515415806584</v>
       </c>
       <c r="S31" t="n">
         <v>151.3932686552011</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>64.57991364897669</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T32" t="n">
         <v>214.3635095521018</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.063515415806592</v>
+        <v>5.0635154158066</v>
       </c>
       <c r="S34" t="n">
         <v>151.3932686552011</v>
@@ -3255,7 +3255,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790331</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3268,22 +3268,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>396.5836142728854</v>
       </c>
       <c r="H35" t="n">
-        <v>278.0434075022747</v>
+        <v>278.0434075022746</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>64.57991364897681</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T35" t="n">
-        <v>214.3635095521019</v>
+        <v>214.3635095521018</v>
       </c>
       <c r="U35" t="n">
         <v>256.5660605529467</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>189.9004325317975</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3435,7 +3435,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978615</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.5764026524035</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>5.063515415806592</v>
+        <v>5.063515415806584</v>
       </c>
       <c r="S37" t="n">
         <v>151.3932686552011</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>64.57991364897669</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T38" t="n">
-        <v>214.3635095521018</v>
+        <v>214.3635095521021</v>
       </c>
       <c r="U38" t="n">
-        <v>256.5660605529485</v>
+        <v>256.5660605529476</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>5.063515415806592</v>
+        <v>5.063515415806584</v>
       </c>
       <c r="S40" t="n">
         <v>151.3932686552011</v>
@@ -3754,10 +3754,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>150.6567557320263</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>278.0434075022746</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>64.57991364897669</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>214.3635095521018</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.5660605529466</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>355.1542315621929</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>5.063515415806592</v>
+        <v>5.0635154158066</v>
       </c>
       <c r="S43" t="n">
         <v>151.3932686552011</v>
@@ -3985,16 +3985,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>247.7036209781256</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>396.5836142728854</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>278.0434075022746</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.5660605529466</v>
+        <v>151.5567714308264</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4339,19 +4339,19 @@
         <v>44.20705326085427</v>
       </c>
       <c r="M2" t="n">
-        <v>44.20705326085427</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="N2" t="n">
-        <v>85.10890627790634</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="O2" t="n">
-        <v>85.10890627790634</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="P2" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Q2" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="R2" t="n">
         <v>165.2600121901094</v>
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.2600121901094</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="C3" t="n">
-        <v>128.5021791757032</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="D3" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E3" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F3" t="n">
         <v>3.305200243802188</v>
@@ -4409,22 +4409,22 @@
         <v>29.36887340425979</v>
       </c>
       <c r="J3" t="n">
+        <v>29.36887340425979</v>
+      </c>
+      <c r="K3" t="n">
+        <v>29.36887340425979</v>
+      </c>
+      <c r="L3" t="n">
+        <v>29.36887340425979</v>
+      </c>
+      <c r="M3" t="n">
+        <v>29.36887340425979</v>
+      </c>
+      <c r="N3" t="n">
+        <v>29.36887340425979</v>
+      </c>
+      <c r="O3" t="n">
         <v>42.55445313895319</v>
-      </c>
-      <c r="K3" t="n">
-        <v>83.45630615600527</v>
-      </c>
-      <c r="L3" t="n">
-        <v>83.45630615600527</v>
-      </c>
-      <c r="M3" t="n">
-        <v>83.45630615600527</v>
-      </c>
-      <c r="N3" t="n">
-        <v>83.45630615600527</v>
-      </c>
-      <c r="O3" t="n">
-        <v>83.45630615600527</v>
       </c>
       <c r="P3" t="n">
         <v>83.45630615600527</v>
@@ -4448,13 +4448,13 @@
         <v>165.2600121901094</v>
       </c>
       <c r="W3" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="X3" t="n">
-        <v>165.2600121901094</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="Y3" t="n">
-        <v>165.2600121901094</v>
+        <v>86.76985286506957</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>45.03752655443588</v>
+        <v>18.64521196358022</v>
       </c>
       <c r="C4" t="n">
-        <v>45.03752655443588</v>
+        <v>18.64521196358022</v>
       </c>
       <c r="D4" t="n">
-        <v>45.03752655443588</v>
+        <v>18.64521196358022</v>
       </c>
       <c r="E4" t="n">
-        <v>45.03752655443588</v>
+        <v>18.64521196358022</v>
       </c>
       <c r="F4" t="n">
-        <v>45.03752655443588</v>
+        <v>18.64521196358022</v>
       </c>
       <c r="G4" t="n">
-        <v>45.03752655443588</v>
+        <v>18.64521196358022</v>
       </c>
       <c r="H4" t="n">
         <v>3.305200243802188</v>
@@ -4494,16 +4494,16 @@
         <v>3.305200243802188</v>
       </c>
       <c r="L4" t="n">
+        <v>3.305200243802188</v>
+      </c>
+      <c r="M4" t="n">
         <v>44.20705326085427</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>85.10890627790634</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>126.0107592949584</v>
-      </c>
-      <c r="O4" t="n">
-        <v>165.2600121901094</v>
       </c>
       <c r="P4" t="n">
         <v>165.2600121901094</v>
@@ -4515,25 +4515,25 @@
         <v>143.8421908954813</v>
       </c>
       <c r="S4" t="n">
-        <v>143.8421908954813</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="T4" t="n">
-        <v>102.1098645848476</v>
+        <v>60.37753827421391</v>
       </c>
       <c r="U4" t="n">
-        <v>102.1098645848476</v>
+        <v>18.64521196358022</v>
       </c>
       <c r="V4" t="n">
-        <v>102.1098645848476</v>
+        <v>18.64521196358022</v>
       </c>
       <c r="W4" t="n">
-        <v>86.76985286506957</v>
+        <v>18.64521196358022</v>
       </c>
       <c r="X4" t="n">
-        <v>86.76985286506957</v>
+        <v>18.64521196358022</v>
       </c>
       <c r="Y4" t="n">
-        <v>45.03752655443588</v>
+        <v>18.64521196358022</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>122.8380161568153</v>
+        <v>122.8380161568152</v>
       </c>
       <c r="C5" t="n">
-        <v>88.73594738064263</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D5" t="n">
-        <v>56.86656659549121</v>
+        <v>56.86656659549116</v>
       </c>
       <c r="E5" t="n">
-        <v>27.13222579419044</v>
+        <v>27.13222579419039</v>
       </c>
       <c r="F5" t="n">
-        <v>3.305200243802236</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G5" t="n">
-        <v>3.305200243802236</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H5" t="n">
-        <v>3.305200243802236</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I5" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="J5" t="n">
-        <v>42.55445313895319</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K5" t="n">
-        <v>42.55445313895319</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L5" t="n">
-        <v>42.55445313895319</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="M5" t="n">
-        <v>42.55445313895319</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="N5" t="n">
-        <v>42.55445313895319</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="O5" t="n">
-        <v>42.55445313895319</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P5" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q5" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="R5" t="n">
         <v>165.2600121901094</v>
@@ -4606,7 +4606,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="W5" t="n">
-        <v>164.4449616415468</v>
+        <v>164.4449616415467</v>
       </c>
       <c r="X5" t="n">
         <v>149.3429022612615</v>
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.2600121901094</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="C6" t="n">
-        <v>128.5021791757032</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D6" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E6" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F6" t="n">
         <v>3.305200243802188</v>
@@ -4646,16 +4646,16 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J6" t="n">
+        <v>3.305200243802188</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.305200243802188</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.305200243802188</v>
+      </c>
+      <c r="M6" t="n">
         <v>44.20705326085427</v>
-      </c>
-      <c r="K6" t="n">
-        <v>85.10890627790634</v>
-      </c>
-      <c r="L6" t="n">
-        <v>85.10890627790634</v>
-      </c>
-      <c r="M6" t="n">
-        <v>85.10890627790634</v>
       </c>
       <c r="N6" t="n">
         <v>85.10890627790634</v>
@@ -4664,34 +4664,34 @@
         <v>85.10890627790634</v>
       </c>
       <c r="P6" t="n">
-        <v>85.10890627790634</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="Q6" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="R6" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="S6" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="T6" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="U6" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="V6" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="W6" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="X6" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="Y6" t="n">
-        <v>165.2600121901094</v>
+        <v>81.79535956884203</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>123.5276858794757</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="C7" t="n">
-        <v>123.5276858794757</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="D7" t="n">
-        <v>123.5276858794757</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="E7" t="n">
-        <v>81.79535956884203</v>
+        <v>60.37753827421391</v>
       </c>
       <c r="F7" t="n">
-        <v>45.03752655443588</v>
+        <v>60.37753827421391</v>
       </c>
       <c r="G7" t="n">
         <v>45.03752655443588</v>
       </c>
       <c r="H7" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="I7" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="J7" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K7" t="n">
         <v>44.20705326085427</v>
       </c>
       <c r="L7" t="n">
-        <v>83.45630615600527</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="M7" t="n">
-        <v>83.45630615600527</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="N7" t="n">
+        <v>85.10890627790634</v>
+      </c>
+      <c r="O7" t="n">
         <v>124.3581591730573</v>
       </c>
-      <c r="O7" t="n">
-        <v>165.2600121901094</v>
-      </c>
       <c r="P7" t="n">
-        <v>165.2600121901094</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q7" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="R7" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="S7" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="T7" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="U7" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="V7" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="W7" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="X7" t="n">
-        <v>123.5276858794757</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="Y7" t="n">
-        <v>123.5276858794757</v>
+        <v>143.8421908954813</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>122.8380161568153</v>
+        <v>122.8380161568152</v>
       </c>
       <c r="C8" t="n">
-        <v>88.73594738064263</v>
+        <v>88.73594738064259</v>
       </c>
       <c r="D8" t="n">
-        <v>56.86656659549121</v>
+        <v>56.86656659549116</v>
       </c>
       <c r="E8" t="n">
-        <v>27.13222579419044</v>
+        <v>27.13222579419039</v>
       </c>
       <c r="F8" t="n">
-        <v>3.305200243802236</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G8" t="n">
-        <v>3.305200243802236</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H8" t="n">
-        <v>3.305200243802236</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I8" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="J8" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="K8" t="n">
-        <v>85.10890627790634</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="L8" t="n">
-        <v>85.10890627790634</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="M8" t="n">
-        <v>85.10890627790634</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="N8" t="n">
-        <v>85.10890627790634</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="O8" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="P8" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Q8" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="R8" t="n">
         <v>165.2600121901094</v>
@@ -4843,7 +4843,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="W8" t="n">
-        <v>164.4449616415468</v>
+        <v>164.4449616415467</v>
       </c>
       <c r="X8" t="n">
         <v>149.3429022612615</v>
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.2600121901094</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C9" t="n">
-        <v>165.2600121901094</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D9" t="n">
-        <v>165.2600121901094</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E9" t="n">
-        <v>128.5021791757032</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F9" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G9" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H9" t="n">
         <v>3.305200243802188</v>
@@ -4883,52 +4883,52 @@
         <v>29.36887340425979</v>
       </c>
       <c r="J9" t="n">
-        <v>42.55445313895319</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="K9" t="n">
-        <v>42.55445313895319</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="L9" t="n">
-        <v>42.55445313895319</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="M9" t="n">
-        <v>83.45630615600527</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="N9" t="n">
-        <v>124.3581591730573</v>
+        <v>152.074432455416</v>
       </c>
       <c r="O9" t="n">
-        <v>124.3581591730573</v>
+        <v>152.074432455416</v>
       </c>
       <c r="P9" t="n">
-        <v>124.3581591730573</v>
+        <v>152.074432455416</v>
       </c>
       <c r="Q9" t="n">
-        <v>124.3581591730573</v>
+        <v>152.074432455416</v>
       </c>
       <c r="R9" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="S9" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="T9" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="U9" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="V9" t="n">
-        <v>165.2600121901094</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="W9" t="n">
-        <v>165.2600121901094</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="X9" t="n">
-        <v>165.2600121901094</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="Y9" t="n">
-        <v>165.2600121901094</v>
+        <v>3.305200243802188</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>143.8421908954813</v>
+        <v>18.64521196358022</v>
       </c>
       <c r="C10" t="n">
-        <v>143.8421908954813</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D10" t="n">
-        <v>143.8421908954813</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E10" t="n">
-        <v>102.1098645848476</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F10" t="n">
-        <v>60.37753827421391</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G10" t="n">
-        <v>18.64521196358022</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H10" t="n">
         <v>3.305200243802188</v>
@@ -4962,25 +4962,25 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J10" t="n">
+        <v>3.305200243802188</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.305200243802188</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.305200243802188</v>
+      </c>
+      <c r="M10" t="n">
         <v>44.20705326085427</v>
-      </c>
-      <c r="K10" t="n">
-        <v>85.10890627790634</v>
-      </c>
-      <c r="L10" t="n">
-        <v>85.10890627790634</v>
-      </c>
-      <c r="M10" t="n">
-        <v>85.10890627790634</v>
       </c>
       <c r="N10" t="n">
         <v>85.10890627790634</v>
       </c>
       <c r="O10" t="n">
-        <v>85.10890627790634</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="P10" t="n">
-        <v>126.0107592949584</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Q10" t="n">
         <v>165.2600121901094</v>
@@ -4998,16 +4998,16 @@
         <v>143.8421908954813</v>
       </c>
       <c r="V10" t="n">
-        <v>143.8421908954813</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="W10" t="n">
-        <v>143.8421908954813</v>
+        <v>60.37753827421391</v>
       </c>
       <c r="X10" t="n">
-        <v>143.8421908954813</v>
+        <v>18.64521196358022</v>
       </c>
       <c r="Y10" t="n">
-        <v>143.8421908954813</v>
+        <v>18.64521196358022</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2029.682483819465</v>
+        <v>2111.697681067529</v>
       </c>
       <c r="C11" t="n">
-        <v>1591.540011002889</v>
+        <v>1673.555208250952</v>
       </c>
       <c r="D11" t="n">
-        <v>1591.540011002889</v>
+        <v>1237.645423425397</v>
       </c>
       <c r="E11" t="n">
-        <v>1157.765266161184</v>
+        <v>803.8706785836916</v>
       </c>
       <c r="F11" t="n">
-        <v>729.8978365703915</v>
+        <v>478.7163995491925</v>
       </c>
       <c r="G11" t="n">
-        <v>329.3083272038406</v>
+        <v>78.12689018264167</v>
       </c>
       <c r="H11" t="n">
-        <v>78.12689018264169</v>
+        <v>78.12689018264167</v>
       </c>
       <c r="I11" t="n">
         <v>108.2610888134436</v>
@@ -5044,49 +5044,49 @@
         <v>610.7558506061011</v>
       </c>
       <c r="K11" t="n">
-        <v>909.981710701177</v>
+        <v>1545.881583808405</v>
       </c>
       <c r="L11" t="n">
-        <v>1035.002556738597</v>
+        <v>1670.902429845825</v>
       </c>
       <c r="M11" t="n">
-        <v>1174.11233689333</v>
+        <v>1810.012210000559</v>
       </c>
       <c r="N11" t="n">
-        <v>1315.473058725765</v>
+        <v>1951.372931832993</v>
       </c>
       <c r="O11" t="n">
-        <v>2282.293324735956</v>
+        <v>2113.139259982898</v>
       </c>
       <c r="P11" t="n">
-        <v>3224.527784498703</v>
+        <v>3055.373719745645</v>
       </c>
       <c r="Q11" t="n">
-        <v>3856.579189233486</v>
+        <v>3687.425124480429</v>
       </c>
       <c r="R11" t="n">
         <v>3906.344509132084</v>
       </c>
       <c r="S11" t="n">
-        <v>3841.112273123017</v>
+        <v>3841.112273123016</v>
       </c>
       <c r="T11" t="n">
         <v>3624.583475595641</v>
       </c>
       <c r="U11" t="n">
-        <v>3624.583475595641</v>
+        <v>3365.425838673472</v>
       </c>
       <c r="V11" t="n">
-        <v>3261.966525529468</v>
+        <v>3365.425838673472</v>
       </c>
       <c r="W11" t="n">
-        <v>2857.111070940501</v>
+        <v>3365.425838673472</v>
       </c>
       <c r="X11" t="n">
-        <v>2437.968607519812</v>
+        <v>2946.283375252783</v>
       </c>
       <c r="Y11" t="n">
-        <v>2029.682483819465</v>
+        <v>2537.997251552436</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>115.6855955713922</v>
       </c>
       <c r="H12" t="n">
-        <v>78.12689018264169</v>
+        <v>78.12689018264167</v>
       </c>
       <c r="I12" t="n">
-        <v>92.72113659383793</v>
+        <v>118.7848097542955</v>
       </c>
       <c r="J12" t="n">
-        <v>132.7688642299626</v>
+        <v>428.6858535773648</v>
       </c>
       <c r="K12" t="n">
-        <v>201.216809468308</v>
+        <v>497.1337988157103</v>
       </c>
       <c r="L12" t="n">
-        <v>293.2535188423552</v>
+        <v>589.1705081897575</v>
       </c>
       <c r="M12" t="n">
-        <v>1260.073784852546</v>
+        <v>696.5730069381405</v>
       </c>
       <c r="N12" t="n">
-        <v>1370.31890815669</v>
+        <v>806.8181302422839</v>
       </c>
       <c r="O12" t="n">
-        <v>1471.171657846901</v>
+        <v>907.6708799324958</v>
       </c>
       <c r="P12" t="n">
-        <v>1646.525819620779</v>
+        <v>988.6141028943636</v>
       </c>
       <c r="Q12" t="n">
-        <v>1700.634220582748</v>
+        <v>1583.461442488408</v>
       </c>
       <c r="R12" t="n">
         <v>1726.952201754327</v>
@@ -5184,25 +5184,25 @@
         <v>804.2551143522605</v>
       </c>
       <c r="E13" t="n">
-        <v>634.4971106029977</v>
+        <v>634.4971106029979</v>
       </c>
       <c r="F13" t="n">
-        <v>457.790056564754</v>
+        <v>457.7900565647541</v>
       </c>
       <c r="G13" t="n">
-        <v>292.5613670168717</v>
+        <v>292.5613670168718</v>
       </c>
       <c r="H13" t="n">
-        <v>155.8829067700796</v>
+        <v>155.8829067700801</v>
       </c>
       <c r="I13" t="n">
-        <v>78.12689018264169</v>
+        <v>78.12689018264167</v>
       </c>
       <c r="J13" t="n">
         <v>189.8312326722277</v>
       </c>
       <c r="K13" t="n">
-        <v>505.8772172179259</v>
+        <v>505.877217217926</v>
       </c>
       <c r="L13" t="n">
         <v>976.920922554275</v>
@@ -5217,7 +5217,7 @@
         <v>2458.649930339091</v>
       </c>
       <c r="P13" t="n">
-        <v>2849.137207625675</v>
+        <v>2849.137207625676</v>
       </c>
       <c r="Q13" t="n">
         <v>3047.087372051486</v>
@@ -5226,10 +5226,10 @@
         <v>3041.972710015318</v>
       </c>
       <c r="S13" t="n">
-        <v>2889.050216424205</v>
+        <v>2889.050216424206</v>
       </c>
       <c r="T13" t="n">
-        <v>2644.719998642263</v>
+        <v>2644.719998642264</v>
       </c>
       <c r="U13" t="n">
         <v>2366.306775282257</v>
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1828.599975842146</v>
+        <v>2495.262758393796</v>
       </c>
       <c r="C14" t="n">
-        <v>1390.457503025569</v>
+        <v>2057.120285577219</v>
       </c>
       <c r="D14" t="n">
-        <v>954.5477182000136</v>
+        <v>1621.210500751664</v>
       </c>
       <c r="E14" t="n">
-        <v>520.7729733583087</v>
+        <v>1187.435755909959</v>
       </c>
       <c r="F14" t="n">
-        <v>478.7163995491926</v>
+        <v>759.568326319167</v>
       </c>
       <c r="G14" t="n">
-        <v>78.12689018264169</v>
+        <v>358.9788169526161</v>
       </c>
       <c r="H14" t="n">
-        <v>78.12689018264169</v>
+        <v>78.12689018264165</v>
       </c>
       <c r="I14" t="n">
         <v>108.2610888134436</v>
@@ -5281,49 +5281,49 @@
         <v>610.7558506061011</v>
       </c>
       <c r="K14" t="n">
-        <v>711.5312918502273</v>
+        <v>1545.881583808405</v>
       </c>
       <c r="L14" t="n">
-        <v>1678.351557860418</v>
+        <v>1670.902429845825</v>
       </c>
       <c r="M14" t="n">
-        <v>1817.461338015151</v>
+        <v>1810.012210000559</v>
       </c>
       <c r="N14" t="n">
-        <v>2784.281604025342</v>
+        <v>1951.372931832993</v>
       </c>
       <c r="O14" t="n">
-        <v>2917.764525133574</v>
+        <v>2113.139259982896</v>
       </c>
       <c r="P14" t="n">
-        <v>3055.373719745645</v>
+        <v>3055.373719745643</v>
       </c>
       <c r="Q14" t="n">
-        <v>3687.425124480429</v>
+        <v>3687.425124480427</v>
       </c>
       <c r="R14" t="n">
-        <v>3906.344509132084</v>
+        <v>3906.344509132082</v>
       </c>
       <c r="S14" t="n">
-        <v>3906.344509132084</v>
+        <v>3841.112273123014</v>
       </c>
       <c r="T14" t="n">
-        <v>3689.815711604709</v>
+        <v>3624.583475595639</v>
       </c>
       <c r="U14" t="n">
-        <v>3430.65807468254</v>
+        <v>3365.42583867347</v>
       </c>
       <c r="V14" t="n">
-        <v>3068.041124616367</v>
+        <v>3365.42583867347</v>
       </c>
       <c r="W14" t="n">
-        <v>2663.1856700274</v>
+        <v>2960.570384084504</v>
       </c>
       <c r="X14" t="n">
-        <v>2663.1856700274</v>
+        <v>2960.570384084504</v>
       </c>
       <c r="Y14" t="n">
-        <v>2254.899546327053</v>
+        <v>2552.284260384157</v>
       </c>
     </row>
     <row r="15">
@@ -5348,34 +5348,34 @@
         <v>200.6381949013625</v>
       </c>
       <c r="G15" t="n">
-        <v>115.6855955713922</v>
+        <v>115.6855955713921</v>
       </c>
       <c r="H15" t="n">
-        <v>78.12689018264169</v>
+        <v>78.12689018264165</v>
       </c>
       <c r="I15" t="n">
-        <v>92.72113659383793</v>
+        <v>92.72113659383788</v>
       </c>
       <c r="J15" t="n">
-        <v>457.3271891961749</v>
+        <v>428.6858535773648</v>
       </c>
       <c r="K15" t="n">
-        <v>525.7751344345204</v>
+        <v>497.1337988157103</v>
       </c>
       <c r="L15" t="n">
-        <v>1129.909446821833</v>
+        <v>589.1705081897575</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.311945570216</v>
+        <v>696.5730069381405</v>
       </c>
       <c r="N15" t="n">
-        <v>1347.55706887436</v>
+        <v>806.8181302422839</v>
       </c>
       <c r="O15" t="n">
-        <v>1448.409818564571</v>
+        <v>907.6708799324958</v>
       </c>
       <c r="P15" t="n">
-        <v>1529.353041526439</v>
+        <v>988.6141028943636</v>
       </c>
       <c r="Q15" t="n">
         <v>1583.461442488408</v>
@@ -5415,25 +5415,25 @@
         <v>1142.694818667514</v>
       </c>
       <c r="C16" t="n">
-        <v>970.1331071507384</v>
+        <v>970.1331071507389</v>
       </c>
       <c r="D16" t="n">
-        <v>804.255114352261</v>
+        <v>804.2551143522614</v>
       </c>
       <c r="E16" t="n">
-        <v>634.4971106029983</v>
+        <v>634.4971106029984</v>
       </c>
       <c r="F16" t="n">
         <v>457.7900565647545</v>
       </c>
       <c r="G16" t="n">
-        <v>292.5613670168723</v>
+        <v>292.5613670168722</v>
       </c>
       <c r="H16" t="n">
         <v>155.8829067700801</v>
       </c>
       <c r="I16" t="n">
-        <v>78.12689018264169</v>
+        <v>78.12689018264165</v>
       </c>
       <c r="J16" t="n">
         <v>189.8312326722277</v>
@@ -5472,13 +5472,13 @@
         <v>2366.306775282258</v>
       </c>
       <c r="V16" t="n">
-        <v>2079.351267152688</v>
+        <v>2079.351267152689</v>
       </c>
       <c r="W16" t="n">
         <v>1807.32486273898</v>
       </c>
       <c r="X16" t="n">
-        <v>1561.933108072392</v>
+        <v>1561.933108072393</v>
       </c>
       <c r="Y16" t="n">
         <v>1334.513437386501</v>
@@ -5515,43 +5515,43 @@
         <v>131.7516496702071</v>
       </c>
       <c r="J17" t="n">
-        <v>198.9917240099467</v>
+        <v>634.2464114628646</v>
       </c>
       <c r="K17" t="n">
-        <v>1134.117457212251</v>
+        <v>1569.372144665169</v>
       </c>
       <c r="L17" t="n">
-        <v>1259.138303249671</v>
+        <v>2769.452956955448</v>
       </c>
       <c r="M17" t="n">
-        <v>1398.248083404404</v>
+        <v>3012.823659880404</v>
       </c>
       <c r="N17" t="n">
-        <v>2655.764040017042</v>
+        <v>3154.184381712839</v>
       </c>
       <c r="O17" t="n">
-        <v>3769.42662769558</v>
+        <v>3287.667302821071</v>
       </c>
       <c r="P17" t="n">
-        <v>4711.661087458327</v>
+        <v>4229.901762583818</v>
       </c>
       <c r="Q17" t="n">
-        <v>5031.107232071657</v>
+        <v>4861.953167318601</v>
       </c>
       <c r="R17" t="n">
-        <v>5080.872551970256</v>
+        <v>5080.872551970257</v>
       </c>
       <c r="S17" t="n">
-        <v>5015.640315961188</v>
+        <v>5015.640315961189</v>
       </c>
       <c r="T17" t="n">
-        <v>4799.111518433812</v>
+        <v>4799.111518433813</v>
       </c>
       <c r="U17" t="n">
-        <v>4539.953881511644</v>
+        <v>4539.953881511645</v>
       </c>
       <c r="V17" t="n">
-        <v>4177.33693144547</v>
+        <v>4177.336931445471</v>
       </c>
       <c r="W17" t="n">
         <v>3772.481476856503</v>
@@ -5591,31 +5591,31 @@
         <v>101.6174510394051</v>
       </c>
       <c r="I18" t="n">
-        <v>116.2116974506014</v>
+        <v>142.275370611059</v>
       </c>
       <c r="J18" t="n">
-        <v>480.8177500529383</v>
+        <v>506.8814232133959</v>
       </c>
       <c r="K18" t="n">
-        <v>549.2656952912837</v>
+        <v>575.3293684517414</v>
       </c>
       <c r="L18" t="n">
-        <v>641.3024046653309</v>
+        <v>667.3660778257886</v>
       </c>
       <c r="M18" t="n">
-        <v>748.7049034137139</v>
+        <v>774.7685765741716</v>
       </c>
       <c r="N18" t="n">
-        <v>858.9500267178573</v>
+        <v>885.013699878315</v>
       </c>
       <c r="O18" t="n">
-        <v>959.802776408069</v>
+        <v>985.8664495685268</v>
       </c>
       <c r="P18" t="n">
-        <v>1040.745999369937</v>
+        <v>1066.809672530395</v>
       </c>
       <c r="Q18" t="n">
-        <v>1606.952003345172</v>
+        <v>1661.657012124439</v>
       </c>
       <c r="R18" t="n">
         <v>1750.44276261109</v>
@@ -5679,7 +5679,7 @@
         <v>529.3677780746895</v>
       </c>
       <c r="L19" t="n">
-        <v>1000.411483411039</v>
+        <v>1000.411483411038</v>
       </c>
       <c r="M19" t="n">
         <v>1515.601209696129</v>
@@ -5688,7 +5688,7 @@
         <v>2012.24131113717</v>
       </c>
       <c r="O19" t="n">
-        <v>2482.140491195855</v>
+        <v>2482.140491195854</v>
       </c>
       <c r="P19" t="n">
         <v>2872.627768482439</v>
@@ -5697,7 +5697,7 @@
         <v>3070.57793290825</v>
       </c>
       <c r="R19" t="n">
-        <v>3065.463270872082</v>
+        <v>3065.463270872081</v>
       </c>
       <c r="S19" t="n">
         <v>2912.540777280969</v>
@@ -5712,7 +5712,7 @@
         <v>2102.841828009452</v>
       </c>
       <c r="W19" t="n">
-        <v>1830.815423595743</v>
+        <v>1830.815423595744</v>
       </c>
       <c r="X19" t="n">
         <v>1585.423668929156</v>
@@ -5758,43 +5758,43 @@
         <v>1569.372144665169</v>
       </c>
       <c r="L20" t="n">
-        <v>2769.452956955448</v>
+        <v>1755.307703267766</v>
       </c>
       <c r="M20" t="n">
-        <v>4010.287599466856</v>
+        <v>3012.823659880404</v>
       </c>
       <c r="N20" t="n">
-        <v>4151.648321299291</v>
+        <v>3154.184381712839</v>
       </c>
       <c r="O20" t="n">
-        <v>4285.131242407522</v>
+        <v>3287.667302821071</v>
       </c>
       <c r="P20" t="n">
-        <v>4399.055827336873</v>
+        <v>4229.901762583818</v>
       </c>
       <c r="Q20" t="n">
-        <v>5031.107232071657</v>
+        <v>4861.953167318601</v>
       </c>
       <c r="R20" t="n">
-        <v>5080.872551970256</v>
+        <v>5080.872551970257</v>
       </c>
       <c r="S20" t="n">
-        <v>5015.640315961188</v>
+        <v>5015.640315961189</v>
       </c>
       <c r="T20" t="n">
-        <v>4799.111518433812</v>
+        <v>4799.111518433813</v>
       </c>
       <c r="U20" t="n">
-        <v>4539.953881511644</v>
+        <v>4539.953881511645</v>
       </c>
       <c r="V20" t="n">
-        <v>4177.33693144547</v>
+        <v>4177.336931445471</v>
       </c>
       <c r="W20" t="n">
-        <v>3772.481476856503</v>
+        <v>3772.481476856505</v>
       </c>
       <c r="X20" t="n">
-        <v>3353.339013435814</v>
+        <v>3353.339013435816</v>
       </c>
       <c r="Y20" t="n">
         <v>2945.052889735467</v>
@@ -5828,31 +5828,31 @@
         <v>101.6174510394051</v>
       </c>
       <c r="I21" t="n">
-        <v>116.2116974506014</v>
+        <v>142.275370611059</v>
       </c>
       <c r="J21" t="n">
-        <v>480.8177500529383</v>
+        <v>506.8814232133959</v>
       </c>
       <c r="K21" t="n">
-        <v>549.2656952912837</v>
+        <v>575.3293684517414</v>
       </c>
       <c r="L21" t="n">
-        <v>641.3024046653309</v>
+        <v>667.3660778257886</v>
       </c>
       <c r="M21" t="n">
-        <v>748.7049034137139</v>
+        <v>774.7685765741716</v>
       </c>
       <c r="N21" t="n">
-        <v>858.9500267178573</v>
+        <v>885.013699878315</v>
       </c>
       <c r="O21" t="n">
-        <v>959.802776408069</v>
+        <v>985.8664495685268</v>
       </c>
       <c r="P21" t="n">
-        <v>1040.745999369937</v>
+        <v>1066.809672530395</v>
       </c>
       <c r="Q21" t="n">
-        <v>1606.952003345172</v>
+        <v>1661.657012124439</v>
       </c>
       <c r="R21" t="n">
         <v>1750.44276261109</v>
@@ -5889,19 +5889,19 @@
         <v>1166.185379524277</v>
       </c>
       <c r="C22" t="n">
-        <v>993.6236680075018</v>
+        <v>993.6236680075016</v>
       </c>
       <c r="D22" t="n">
-        <v>827.7456752090245</v>
+        <v>827.7456752090243</v>
       </c>
       <c r="E22" t="n">
-        <v>657.9876714597617</v>
+        <v>657.9876714597616</v>
       </c>
       <c r="F22" t="n">
-        <v>481.2806174215179</v>
+        <v>481.2806174215178</v>
       </c>
       <c r="G22" t="n">
-        <v>316.0519278736357</v>
+        <v>316.0519278736356</v>
       </c>
       <c r="H22" t="n">
         <v>179.3734676268436</v>
@@ -5922,10 +5922,10 @@
         <v>1515.601209696129</v>
       </c>
       <c r="N22" t="n">
-        <v>2012.24131113717</v>
+        <v>2012.241311137171</v>
       </c>
       <c r="O22" t="n">
-        <v>2482.140491195854</v>
+        <v>2482.140491195855</v>
       </c>
       <c r="P22" t="n">
         <v>2872.627768482439</v>
@@ -5934,13 +5934,13 @@
         <v>3070.57793290825</v>
       </c>
       <c r="R22" t="n">
-        <v>3065.463270872082</v>
+        <v>3065.463270872081</v>
       </c>
       <c r="S22" t="n">
         <v>2912.540777280969</v>
       </c>
       <c r="T22" t="n">
-        <v>2668.210559499028</v>
+        <v>2668.210559499027</v>
       </c>
       <c r="U22" t="n">
         <v>2389.797336139021</v>
@@ -5968,7 +5968,7 @@
         <v>2518.75331925056</v>
       </c>
       <c r="C23" t="n">
-        <v>2080.610846433984</v>
+        <v>2080.610846433983</v>
       </c>
       <c r="D23" t="n">
         <v>1644.701061608428</v>
@@ -5977,7 +5977,7 @@
         <v>1210.926316766723</v>
       </c>
       <c r="F23" t="n">
-        <v>783.058887175931</v>
+        <v>783.0588871759304</v>
       </c>
       <c r="G23" t="n">
         <v>382.4693778093795</v>
@@ -5989,46 +5989,46 @@
         <v>131.7516496702071</v>
       </c>
       <c r="J23" t="n">
-        <v>198.9917240099467</v>
+        <v>634.2464114628646</v>
       </c>
       <c r="K23" t="n">
-        <v>299.7671652540728</v>
+        <v>1569.372144665169</v>
       </c>
       <c r="L23" t="n">
-        <v>1499.847977544352</v>
+        <v>1694.392990702589</v>
       </c>
       <c r="M23" t="n">
-        <v>2757.363934156991</v>
+        <v>1833.502770857322</v>
       </c>
       <c r="N23" t="n">
-        <v>4014.879890769629</v>
+        <v>2174.004715142532</v>
       </c>
       <c r="O23" t="n">
-        <v>4148.362811877861</v>
+        <v>3287.667302821071</v>
       </c>
       <c r="P23" t="n">
-        <v>4945.554613295468</v>
+        <v>4229.901762583818</v>
       </c>
       <c r="Q23" t="n">
-        <v>5031.107232071657</v>
+        <v>4861.953167318601</v>
       </c>
       <c r="R23" t="n">
-        <v>5080.872551970256</v>
+        <v>5080.872551970257</v>
       </c>
       <c r="S23" t="n">
-        <v>5015.640315961188</v>
+        <v>5015.640315961189</v>
       </c>
       <c r="T23" t="n">
-        <v>4799.111518433812</v>
+        <v>4799.111518433813</v>
       </c>
       <c r="U23" t="n">
-        <v>4539.953881511644</v>
+        <v>4539.953881511645</v>
       </c>
       <c r="V23" t="n">
-        <v>4177.33693144547</v>
+        <v>4177.336931445471</v>
       </c>
       <c r="W23" t="n">
-        <v>3772.481476856504</v>
+        <v>3772.481476856505</v>
       </c>
       <c r="X23" t="n">
         <v>3353.339013435815</v>
@@ -6065,31 +6065,31 @@
         <v>101.6174510394051</v>
       </c>
       <c r="I24" t="n">
-        <v>116.2116974506014</v>
+        <v>142.275370611059</v>
       </c>
       <c r="J24" t="n">
-        <v>480.8177500529383</v>
+        <v>506.8814232133959</v>
       </c>
       <c r="K24" t="n">
-        <v>549.2656952912837</v>
+        <v>1061.36329830455</v>
       </c>
       <c r="L24" t="n">
-        <v>641.3024046653309</v>
+        <v>1153.400007678597</v>
       </c>
       <c r="M24" t="n">
-        <v>748.7049034137139</v>
+        <v>1260.80250642698</v>
       </c>
       <c r="N24" t="n">
-        <v>858.9500267178573</v>
+        <v>1371.047629731123</v>
       </c>
       <c r="O24" t="n">
-        <v>959.802776408069</v>
+        <v>1471.900379421335</v>
       </c>
       <c r="P24" t="n">
-        <v>1040.745999369937</v>
+        <v>1552.843602383203</v>
       </c>
       <c r="Q24" t="n">
-        <v>1635.593338963981</v>
+        <v>1606.952003345172</v>
       </c>
       <c r="R24" t="n">
         <v>1750.44276261109</v>
@@ -6153,7 +6153,7 @@
         <v>529.3677780746895</v>
       </c>
       <c r="L25" t="n">
-        <v>1000.411483411039</v>
+        <v>1000.411483411038</v>
       </c>
       <c r="M25" t="n">
         <v>1515.601209696129</v>
@@ -6162,7 +6162,7 @@
         <v>2012.24131113717</v>
       </c>
       <c r="O25" t="n">
-        <v>2482.140491195855</v>
+        <v>2482.140491195854</v>
       </c>
       <c r="P25" t="n">
         <v>2872.627768482439</v>
@@ -6171,7 +6171,7 @@
         <v>3070.57793290825</v>
       </c>
       <c r="R25" t="n">
-        <v>3065.463270872082</v>
+        <v>3065.463270872081</v>
       </c>
       <c r="S25" t="n">
         <v>2912.540777280969</v>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2518.75331925056</v>
+        <v>2518.753319250559</v>
       </c>
       <c r="C26" t="n">
         <v>2080.610846433983</v>
@@ -6226,43 +6226,43 @@
         <v>131.7516496702071</v>
       </c>
       <c r="J26" t="n">
-        <v>198.9917240099467</v>
+        <v>634.2464114628646</v>
       </c>
       <c r="K26" t="n">
-        <v>299.7671652540728</v>
+        <v>1569.372144665169</v>
       </c>
       <c r="L26" t="n">
-        <v>1499.847977544352</v>
+        <v>1893.534213155363</v>
       </c>
       <c r="M26" t="n">
-        <v>2757.363934156991</v>
+        <v>2032.643993310096</v>
       </c>
       <c r="N26" t="n">
-        <v>4014.879890769629</v>
+        <v>2174.004715142531</v>
       </c>
       <c r="O26" t="n">
-        <v>4831.630028366118</v>
+        <v>3287.667302821069</v>
       </c>
       <c r="P26" t="n">
-        <v>4945.554613295468</v>
+        <v>4229.901762583816</v>
       </c>
       <c r="Q26" t="n">
-        <v>5031.107232071657</v>
+        <v>4861.953167318599</v>
       </c>
       <c r="R26" t="n">
-        <v>5080.872551970256</v>
+        <v>5080.872551970255</v>
       </c>
       <c r="S26" t="n">
-        <v>5015.640315961188</v>
+        <v>5015.640315961187</v>
       </c>
       <c r="T26" t="n">
-        <v>4799.111518433813</v>
+        <v>4799.111518433811</v>
       </c>
       <c r="U26" t="n">
-        <v>4539.953881511644</v>
+        <v>4539.953881511643</v>
       </c>
       <c r="V26" t="n">
-        <v>4177.33693144547</v>
+        <v>4177.336931445469</v>
       </c>
       <c r="W26" t="n">
         <v>3772.481476856503</v>
@@ -6281,7 +6281,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>603.1797588318151</v>
+        <v>603.179758831815</v>
       </c>
       <c r="C27" t="n">
         <v>496.7232976684573</v>
@@ -6302,31 +6302,31 @@
         <v>101.6174510394051</v>
       </c>
       <c r="I27" t="n">
-        <v>116.2116974506014</v>
+        <v>142.2753706110589</v>
       </c>
       <c r="J27" t="n">
-        <v>156.259425086726</v>
+        <v>506.8814232133959</v>
       </c>
       <c r="K27" t="n">
-        <v>224.7073703250715</v>
+        <v>575.3293684517414</v>
       </c>
       <c r="L27" t="n">
-        <v>316.7440796991186</v>
+        <v>667.3660778257886</v>
       </c>
       <c r="M27" t="n">
-        <v>424.1465784475016</v>
+        <v>774.7685765741716</v>
       </c>
       <c r="N27" t="n">
-        <v>534.391701751645</v>
+        <v>885.013699878315</v>
       </c>
       <c r="O27" t="n">
-        <v>635.2444514418568</v>
+        <v>985.8664495685268</v>
       </c>
       <c r="P27" t="n">
-        <v>1535.910840882923</v>
+        <v>1066.809672530395</v>
       </c>
       <c r="Q27" t="n">
-        <v>1724.124781439511</v>
+        <v>1606.952003345172</v>
       </c>
       <c r="R27" t="n">
         <v>1750.44276261109</v>
@@ -6347,10 +6347,10 @@
         <v>1005.836874893477</v>
       </c>
       <c r="X27" t="n">
-        <v>850.9694391323575</v>
+        <v>850.9694391323574</v>
       </c>
       <c r="Y27" t="n">
-        <v>724.4836599115782</v>
+        <v>724.4836599115781</v>
       </c>
     </row>
     <row r="28">
@@ -6378,7 +6378,7 @@
         <v>316.0519278736357</v>
       </c>
       <c r="H28" t="n">
-        <v>179.3734676268436</v>
+        <v>179.3734676268435</v>
       </c>
       <c r="I28" t="n">
         <v>101.6174510394051</v>
@@ -6387,10 +6387,10 @@
         <v>213.3217935289912</v>
       </c>
       <c r="K28" t="n">
-        <v>529.3677780746895</v>
+        <v>529.3677780746897</v>
       </c>
       <c r="L28" t="n">
-        <v>1000.411483411038</v>
+        <v>1000.411483411039</v>
       </c>
       <c r="M28" t="n">
         <v>1515.601209696129</v>
@@ -6399,7 +6399,7 @@
         <v>2012.24131113717</v>
       </c>
       <c r="O28" t="n">
-        <v>2482.140491195854</v>
+        <v>2482.140491195855</v>
       </c>
       <c r="P28" t="n">
         <v>2872.627768482439</v>
@@ -6408,7 +6408,7 @@
         <v>3070.57793290825</v>
       </c>
       <c r="R28" t="n">
-        <v>3065.463270872082</v>
+        <v>3065.463270872081</v>
       </c>
       <c r="S28" t="n">
         <v>2912.540777280969</v>
@@ -6423,7 +6423,7 @@
         <v>2102.841828009452</v>
       </c>
       <c r="W28" t="n">
-        <v>1830.815423595743</v>
+        <v>1830.815423595744</v>
       </c>
       <c r="X28" t="n">
         <v>1585.423668929156</v>
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2518.753319250561</v>
+        <v>2518.75331925056</v>
       </c>
       <c r="C29" t="n">
-        <v>2080.610846433984</v>
+        <v>2080.610846433983</v>
       </c>
       <c r="D29" t="n">
-        <v>1644.701061608429</v>
+        <v>1644.701061608428</v>
       </c>
       <c r="E29" t="n">
         <v>1210.926316766723</v>
@@ -6463,49 +6463,49 @@
         <v>131.7516496702071</v>
       </c>
       <c r="J29" t="n">
-        <v>198.9917240099467</v>
+        <v>198.9917240099468</v>
       </c>
       <c r="K29" t="n">
-        <v>299.7671652540728</v>
+        <v>299.7671652540729</v>
       </c>
       <c r="L29" t="n">
-        <v>1202.935527462303</v>
+        <v>1499.847977544352</v>
       </c>
       <c r="M29" t="n">
         <v>2460.451484074941</v>
       </c>
       <c r="N29" t="n">
-        <v>3717.967440687579</v>
+        <v>3717.96744068758</v>
       </c>
       <c r="O29" t="n">
         <v>4831.630028366118</v>
       </c>
       <c r="P29" t="n">
-        <v>4945.554613295468</v>
+        <v>4945.554613295469</v>
       </c>
       <c r="Q29" t="n">
-        <v>5031.107232071657</v>
+        <v>5031.107232071658</v>
       </c>
       <c r="R29" t="n">
-        <v>5080.872551970256</v>
+        <v>5080.872551970257</v>
       </c>
       <c r="S29" t="n">
-        <v>5015.640315961188</v>
+        <v>5015.640315961189</v>
       </c>
       <c r="T29" t="n">
-        <v>4799.111518433812</v>
+        <v>4799.111518433813</v>
       </c>
       <c r="U29" t="n">
-        <v>4539.953881511644</v>
+        <v>4539.953881511645</v>
       </c>
       <c r="V29" t="n">
-        <v>4177.336931445471</v>
+        <v>4177.33693144547</v>
       </c>
       <c r="W29" t="n">
-        <v>3772.481476856505</v>
+        <v>3772.481476856504</v>
       </c>
       <c r="X29" t="n">
-        <v>3353.339013435816</v>
+        <v>3353.339013435815</v>
       </c>
       <c r="Y29" t="n">
         <v>2945.052889735468</v>
@@ -6539,13 +6539,13 @@
         <v>101.6174510394051</v>
       </c>
       <c r="I30" t="n">
-        <v>116.2116974506014</v>
+        <v>142.275370611059</v>
       </c>
       <c r="J30" t="n">
-        <v>156.259425086726</v>
+        <v>506.8814232133959</v>
       </c>
       <c r="K30" t="n">
-        <v>224.7073703250715</v>
+        <v>1061.36329830455</v>
       </c>
       <c r="L30" t="n">
         <v>1153.400007678597</v>
@@ -6651,7 +6651,7 @@
         <v>2912.540777280969</v>
       </c>
       <c r="T31" t="n">
-        <v>2668.210559499027</v>
+        <v>2668.210559499028</v>
       </c>
       <c r="U31" t="n">
         <v>2389.797336139021</v>
@@ -6706,22 +6706,22 @@
         <v>1569.372144665169</v>
       </c>
       <c r="L32" t="n">
-        <v>2769.452956955448</v>
+        <v>1694.392990702589</v>
       </c>
       <c r="M32" t="n">
-        <v>4026.968913568086</v>
+        <v>1833.502770857322</v>
       </c>
       <c r="N32" t="n">
-        <v>4168.329635400521</v>
+        <v>2174.004715142531</v>
       </c>
       <c r="O32" t="n">
-        <v>4301.812556508752</v>
+        <v>3287.66730282107</v>
       </c>
       <c r="P32" t="n">
-        <v>4945.554613295468</v>
+        <v>4229.901762583817</v>
       </c>
       <c r="Q32" t="n">
-        <v>5031.107232071657</v>
+        <v>4861.9531673186</v>
       </c>
       <c r="R32" t="n">
         <v>5080.872551970256</v>
@@ -6745,7 +6745,7 @@
         <v>3353.339013435814</v>
       </c>
       <c r="Y32" t="n">
-        <v>2945.052889735467</v>
+        <v>2945.052889735468</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>101.6174510394051</v>
       </c>
       <c r="I33" t="n">
-        <v>116.2116974506014</v>
+        <v>142.275370611059</v>
       </c>
       <c r="J33" t="n">
-        <v>480.8177500529383</v>
+        <v>506.8814232133959</v>
       </c>
       <c r="K33" t="n">
-        <v>549.2656952912837</v>
+        <v>575.3293684517414</v>
       </c>
       <c r="L33" t="n">
-        <v>641.3024046653309</v>
+        <v>667.3660778257886</v>
       </c>
       <c r="M33" t="n">
-        <v>748.7049034137139</v>
+        <v>774.7685765741716</v>
       </c>
       <c r="N33" t="n">
-        <v>858.9500267178573</v>
+        <v>885.013699878315</v>
       </c>
       <c r="O33" t="n">
-        <v>959.802776408069</v>
+        <v>985.8664495685268</v>
       </c>
       <c r="P33" t="n">
-        <v>1040.745999369937</v>
+        <v>1066.809672530395</v>
       </c>
       <c r="Q33" t="n">
-        <v>1635.593338963981</v>
+        <v>1661.657012124439</v>
       </c>
       <c r="R33" t="n">
         <v>1750.44276261109</v>
@@ -6897,7 +6897,7 @@
         <v>2102.841828009452</v>
       </c>
       <c r="W34" t="n">
-        <v>1830.815423595744</v>
+        <v>1830.815423595743</v>
       </c>
       <c r="X34" t="n">
         <v>1585.423668929156</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2518.753319250561</v>
+        <v>2518.75331925056</v>
       </c>
       <c r="C35" t="n">
-        <v>2080.610846433984</v>
+        <v>2080.610846433983</v>
       </c>
       <c r="D35" t="n">
-        <v>1644.701061608428</v>
+        <v>1644.701061608427</v>
       </c>
       <c r="E35" t="n">
-        <v>1210.926316766723</v>
+        <v>1210.926316766722</v>
       </c>
       <c r="F35" t="n">
-        <v>783.058887175931</v>
+        <v>783.0588871759303</v>
       </c>
       <c r="G35" t="n">
-        <v>382.4693778093796</v>
+        <v>382.4693778093795</v>
       </c>
       <c r="H35" t="n">
         <v>101.6174510394051</v>
@@ -6940,49 +6940,49 @@
         <v>198.9917240099467</v>
       </c>
       <c r="K35" t="n">
-        <v>299.7671652540728</v>
+        <v>1077.914681424882</v>
       </c>
       <c r="L35" t="n">
-        <v>424.7880112914926</v>
+        <v>1202.935527462302</v>
       </c>
       <c r="M35" t="n">
-        <v>1682.303967904131</v>
+        <v>2460.45148407494</v>
       </c>
       <c r="N35" t="n">
-        <v>2939.81992451677</v>
+        <v>3717.967440687578</v>
       </c>
       <c r="O35" t="n">
-        <v>4003.320153532722</v>
+        <v>4831.630028366117</v>
       </c>
       <c r="P35" t="n">
-        <v>4945.554613295469</v>
+        <v>4945.554613295467</v>
       </c>
       <c r="Q35" t="n">
-        <v>5031.107232071658</v>
+        <v>5031.107232071656</v>
       </c>
       <c r="R35" t="n">
-        <v>5080.872551970257</v>
+        <v>5080.872551970255</v>
       </c>
       <c r="S35" t="n">
-        <v>5015.640315961189</v>
+        <v>5015.640315961188</v>
       </c>
       <c r="T35" t="n">
-        <v>4799.111518433813</v>
+        <v>4799.111518433812</v>
       </c>
       <c r="U35" t="n">
-        <v>4539.953881511645</v>
+        <v>4539.953881511644</v>
       </c>
       <c r="V35" t="n">
-        <v>4177.336931445471</v>
+        <v>4177.33693144547</v>
       </c>
       <c r="W35" t="n">
-        <v>3772.481476856504</v>
+        <v>3772.481476856503</v>
       </c>
       <c r="X35" t="n">
-        <v>3353.339013435815</v>
+        <v>3353.339013435814</v>
       </c>
       <c r="Y35" t="n">
-        <v>2945.052889735468</v>
+        <v>2945.052889735467</v>
       </c>
     </row>
     <row r="36">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>603.1797588318151</v>
+        <v>603.179758831815</v>
       </c>
       <c r="C36" t="n">
         <v>496.7232976684573</v>
@@ -7013,28 +7013,28 @@
         <v>101.6174510394051</v>
       </c>
       <c r="I36" t="n">
-        <v>116.2116974506014</v>
+        <v>142.2753706110589</v>
       </c>
       <c r="J36" t="n">
-        <v>480.8177500529383</v>
+        <v>452.1764144341285</v>
       </c>
       <c r="K36" t="n">
-        <v>549.2656952912838</v>
+        <v>520.6243596724739</v>
       </c>
       <c r="L36" t="n">
-        <v>641.302404665331</v>
+        <v>612.6610690465211</v>
       </c>
       <c r="M36" t="n">
-        <v>748.704903413714</v>
+        <v>720.0635677949042</v>
       </c>
       <c r="N36" t="n">
-        <v>858.9500267178574</v>
+        <v>830.3086910990477</v>
       </c>
       <c r="O36" t="n">
-        <v>959.8027764080691</v>
+        <v>931.1614407892595</v>
       </c>
       <c r="P36" t="n">
-        <v>1040.745999369937</v>
+        <v>1012.104663751127</v>
       </c>
       <c r="Q36" t="n">
         <v>1606.952003345172</v>
@@ -7058,10 +7058,10 @@
         <v>1005.836874893477</v>
       </c>
       <c r="X36" t="n">
-        <v>850.9694391323575</v>
+        <v>850.9694391323574</v>
       </c>
       <c r="Y36" t="n">
-        <v>724.4836599115782</v>
+        <v>724.4836599115781</v>
       </c>
     </row>
     <row r="37">
@@ -7074,13 +7074,13 @@
         <v>1166.185379524277</v>
       </c>
       <c r="C37" t="n">
-        <v>993.623668007502</v>
+        <v>993.6236680075018</v>
       </c>
       <c r="D37" t="n">
-        <v>827.7456752090247</v>
+        <v>827.7456752090245</v>
       </c>
       <c r="E37" t="n">
-        <v>657.9876714597619</v>
+        <v>657.9876714597617</v>
       </c>
       <c r="F37" t="n">
         <v>481.2806174215179</v>
@@ -7089,7 +7089,7 @@
         <v>316.0519278736357</v>
       </c>
       <c r="H37" t="n">
-        <v>179.3734676268436</v>
+        <v>179.3734676268435</v>
       </c>
       <c r="I37" t="n">
         <v>101.6174510394051</v>
@@ -7174,37 +7174,37 @@
         <v>131.7516496702071</v>
       </c>
       <c r="J38" t="n">
-        <v>198.9917240099467</v>
+        <v>634.2464114628646</v>
       </c>
       <c r="K38" t="n">
-        <v>299.7671652540728</v>
+        <v>1569.372144665169</v>
       </c>
       <c r="L38" t="n">
-        <v>424.7880112914926</v>
+        <v>1694.392990702589</v>
       </c>
       <c r="M38" t="n">
-        <v>1682.303967904131</v>
+        <v>1833.502770857322</v>
       </c>
       <c r="N38" t="n">
-        <v>2939.81992451677</v>
+        <v>2174.004715142532</v>
       </c>
       <c r="O38" t="n">
-        <v>4053.482512195308</v>
+        <v>3287.667302821071</v>
       </c>
       <c r="P38" t="n">
-        <v>4945.554613295469</v>
+        <v>4229.901762583818</v>
       </c>
       <c r="Q38" t="n">
-        <v>5031.107232071658</v>
+        <v>4861.953167318601</v>
       </c>
       <c r="R38" t="n">
         <v>5080.872551970257</v>
       </c>
       <c r="S38" t="n">
-        <v>5015.64031596119</v>
+        <v>5015.640315961189</v>
       </c>
       <c r="T38" t="n">
-        <v>4799.111518433814</v>
+        <v>4799.111518433813</v>
       </c>
       <c r="U38" t="n">
         <v>4539.953881511644</v>
@@ -7250,28 +7250,28 @@
         <v>101.6174510394051</v>
       </c>
       <c r="I39" t="n">
-        <v>116.2116974506014</v>
+        <v>142.275370611059</v>
       </c>
       <c r="J39" t="n">
-        <v>480.8177500529383</v>
+        <v>506.8814232133959</v>
       </c>
       <c r="K39" t="n">
-        <v>549.2656952912838</v>
+        <v>575.3293684517414</v>
       </c>
       <c r="L39" t="n">
-        <v>641.302404665331</v>
+        <v>667.3660778257886</v>
       </c>
       <c r="M39" t="n">
-        <v>748.704903413714</v>
+        <v>774.7685765741716</v>
       </c>
       <c r="N39" t="n">
-        <v>858.9500267178574</v>
+        <v>885.013699878315</v>
       </c>
       <c r="O39" t="n">
-        <v>959.8027764080691</v>
+        <v>985.8664495685268</v>
       </c>
       <c r="P39" t="n">
-        <v>1040.745999369937</v>
+        <v>1066.809672530395</v>
       </c>
       <c r="Q39" t="n">
         <v>1606.952003345172</v>
@@ -7356,7 +7356,7 @@
         <v>3070.57793290825</v>
       </c>
       <c r="R40" t="n">
-        <v>3065.463270872082</v>
+        <v>3065.463270872081</v>
       </c>
       <c r="S40" t="n">
         <v>2912.540777280969</v>
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1965.999863400732</v>
+        <v>2094.673249027246</v>
       </c>
       <c r="C41" t="n">
-        <v>1527.857390584155</v>
+        <v>1656.530776210669</v>
       </c>
       <c r="D41" t="n">
-        <v>1091.9476057586</v>
+        <v>1220.620991385113</v>
       </c>
       <c r="E41" t="n">
-        <v>658.1728609168949</v>
+        <v>786.8462465434084</v>
       </c>
       <c r="F41" t="n">
-        <v>230.3054313261027</v>
+        <v>358.9788169526161</v>
       </c>
       <c r="G41" t="n">
-        <v>78.1268901826417</v>
+        <v>358.9788169526161</v>
       </c>
       <c r="H41" t="n">
-        <v>78.1268901826417</v>
+        <v>78.12689018264163</v>
       </c>
       <c r="I41" t="n">
-        <v>108.2610888134437</v>
+        <v>108.2610888134436</v>
       </c>
       <c r="J41" t="n">
         <v>610.7558506061011</v>
       </c>
       <c r="K41" t="n">
-        <v>909.9817107011779</v>
+        <v>1545.881583808405</v>
       </c>
       <c r="L41" t="n">
-        <v>1035.002556738598</v>
+        <v>2512.701849818595</v>
       </c>
       <c r="M41" t="n">
-        <v>1174.112336893331</v>
+        <v>2651.811629973329</v>
       </c>
       <c r="N41" t="n">
-        <v>1315.473058725766</v>
+        <v>2793.172351805763</v>
       </c>
       <c r="O41" t="n">
-        <v>2282.293324735957</v>
+        <v>2926.655272913996</v>
       </c>
       <c r="P41" t="n">
-        <v>3224.527784498704</v>
+        <v>3055.373719745643</v>
       </c>
       <c r="Q41" t="n">
-        <v>3856.579189233487</v>
+        <v>3687.425124480426</v>
       </c>
       <c r="R41" t="n">
-        <v>3906.344509132085</v>
+        <v>3906.344509132081</v>
       </c>
       <c r="S41" t="n">
-        <v>3841.112273123018</v>
+        <v>3906.344509132081</v>
       </c>
       <c r="T41" t="n">
-        <v>3624.583475595642</v>
+        <v>3906.344509132081</v>
       </c>
       <c r="U41" t="n">
-        <v>3624.583475595642</v>
+        <v>3647.186872209913</v>
       </c>
       <c r="V41" t="n">
-        <v>3624.583475595642</v>
+        <v>3284.569922143739</v>
       </c>
       <c r="W41" t="n">
-        <v>3219.728021006676</v>
+        <v>2879.714467554772</v>
       </c>
       <c r="X41" t="n">
-        <v>2800.585557585986</v>
+        <v>2520.972819512153</v>
       </c>
       <c r="Y41" t="n">
-        <v>2392.29943388564</v>
+        <v>2520.972819512153</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>579.6891979750517</v>
+        <v>579.6891979750516</v>
       </c>
       <c r="C42" t="n">
-        <v>473.2327368116939</v>
+        <v>473.2327368116938</v>
       </c>
       <c r="D42" t="n">
-        <v>378.1424479582472</v>
+        <v>378.1424479582471</v>
       </c>
       <c r="E42" t="n">
-        <v>284.0220332852009</v>
+        <v>284.0220332852008</v>
       </c>
       <c r="F42" t="n">
-        <v>200.6381949013625</v>
+        <v>200.6381949013624</v>
       </c>
       <c r="G42" t="n">
-        <v>115.6855955713922</v>
+        <v>115.6855955713921</v>
       </c>
       <c r="H42" t="n">
-        <v>78.1268901826417</v>
+        <v>78.12689018264163</v>
       </c>
       <c r="I42" t="n">
-        <v>92.72113659383794</v>
+        <v>118.7848097542955</v>
       </c>
       <c r="J42" t="n">
-        <v>428.6858535773655</v>
+        <v>428.6858535773648</v>
       </c>
       <c r="K42" t="n">
-        <v>497.133798815711</v>
+        <v>497.1337988157103</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1705081897582</v>
+        <v>589.1705081897575</v>
       </c>
       <c r="M42" t="n">
-        <v>696.5730069381411</v>
+        <v>696.5730069381405</v>
       </c>
       <c r="N42" t="n">
-        <v>806.8181302422845</v>
+        <v>806.8181302422839</v>
       </c>
       <c r="O42" t="n">
-        <v>907.6708799324963</v>
+        <v>907.6708799324958</v>
       </c>
       <c r="P42" t="n">
-        <v>988.614102894364</v>
+        <v>988.6141028943636</v>
       </c>
       <c r="Q42" t="n">
         <v>1583.461442488408</v>
@@ -7529,13 +7529,13 @@
         <v>1167.66906830352</v>
       </c>
       <c r="W42" t="n">
-        <v>982.3463140367141</v>
+        <v>982.3463140367139</v>
       </c>
       <c r="X42" t="n">
-        <v>827.4788782755941</v>
+        <v>827.478878275594</v>
       </c>
       <c r="Y42" t="n">
-        <v>700.9930990548148</v>
+        <v>700.9930990548147</v>
       </c>
     </row>
     <row r="43">
@@ -7554,22 +7554,22 @@
         <v>804.255114352261</v>
       </c>
       <c r="E43" t="n">
-        <v>634.4971106029983</v>
+        <v>634.4971106029982</v>
       </c>
       <c r="F43" t="n">
-        <v>457.7900565647545</v>
+        <v>457.7900565647544</v>
       </c>
       <c r="G43" t="n">
-        <v>292.5613670168723</v>
+        <v>292.5613670168722</v>
       </c>
       <c r="H43" t="n">
-        <v>155.8829067700802</v>
+        <v>155.8829067700801</v>
       </c>
       <c r="I43" t="n">
-        <v>78.1268901826417</v>
+        <v>78.12689018264163</v>
       </c>
       <c r="J43" t="n">
-        <v>189.8312326722278</v>
+        <v>189.8312326722277</v>
       </c>
       <c r="K43" t="n">
         <v>505.8772172179259</v>
@@ -7581,7 +7581,7 @@
         <v>1492.110648839365</v>
       </c>
       <c r="N43" t="n">
-        <v>1988.750750280406</v>
+        <v>1988.750750280407</v>
       </c>
       <c r="O43" t="n">
         <v>2458.649930339091</v>
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2030.841764537799</v>
+        <v>2094.673249027246</v>
       </c>
       <c r="C44" t="n">
-        <v>1592.699291721223</v>
+        <v>1656.530776210669</v>
       </c>
       <c r="D44" t="n">
-        <v>1156.789506895667</v>
+        <v>1220.620991385113</v>
       </c>
       <c r="E44" t="n">
-        <v>906.5838291399848</v>
+        <v>786.8462465434084</v>
       </c>
       <c r="F44" t="n">
-        <v>478.7163995491926</v>
+        <v>358.9788169526161</v>
       </c>
       <c r="G44" t="n">
-        <v>78.1268901826417</v>
+        <v>358.9788169526161</v>
       </c>
       <c r="H44" t="n">
-        <v>78.1268901826417</v>
+        <v>78.12689018264163</v>
       </c>
       <c r="I44" t="n">
-        <v>108.2610888134437</v>
+        <v>108.2610888134436</v>
       </c>
       <c r="J44" t="n">
         <v>610.7558506061011</v>
       </c>
       <c r="K44" t="n">
-        <v>1545.881583808405</v>
+        <v>740.8276459481178</v>
       </c>
       <c r="L44" t="n">
-        <v>1670.902429845825</v>
+        <v>865.8484919855376</v>
       </c>
       <c r="M44" t="n">
-        <v>1810.012210000559</v>
+        <v>1004.958272140271</v>
       </c>
       <c r="N44" t="n">
-        <v>1951.372931832993</v>
+        <v>1146.318993972706</v>
       </c>
       <c r="O44" t="n">
-        <v>2918.193197843184</v>
+        <v>2113.139259982896</v>
       </c>
       <c r="P44" t="n">
-        <v>3771.026570457298</v>
+        <v>3055.373719745643</v>
       </c>
       <c r="Q44" t="n">
-        <v>3856.579189233487</v>
+        <v>3687.425124480426</v>
       </c>
       <c r="R44" t="n">
-        <v>3906.344509132085</v>
+        <v>3906.344509132081</v>
       </c>
       <c r="S44" t="n">
-        <v>3906.344509132085</v>
+        <v>3906.344509132081</v>
       </c>
       <c r="T44" t="n">
-        <v>3906.344509132085</v>
+        <v>3906.344509132081</v>
       </c>
       <c r="U44" t="n">
-        <v>3647.186872209917</v>
+        <v>3753.256861222156</v>
       </c>
       <c r="V44" t="n">
-        <v>3284.569922143743</v>
+        <v>3753.256861222156</v>
       </c>
       <c r="W44" t="n">
-        <v>3284.569922143743</v>
+        <v>3348.401406633189</v>
       </c>
       <c r="X44" t="n">
-        <v>2865.427458723054</v>
+        <v>2929.2589432125</v>
       </c>
       <c r="Y44" t="n">
-        <v>2457.141335022707</v>
+        <v>2520.972819512153</v>
       </c>
     </row>
     <row r="45">
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>579.6891979750517</v>
+        <v>579.6891979750516</v>
       </c>
       <c r="C45" t="n">
-        <v>473.2327368116939</v>
+        <v>473.2327368116938</v>
       </c>
       <c r="D45" t="n">
-        <v>378.1424479582472</v>
+        <v>378.1424479582471</v>
       </c>
       <c r="E45" t="n">
-        <v>284.0220332852009</v>
+        <v>284.0220332852008</v>
       </c>
       <c r="F45" t="n">
-        <v>200.6381949013625</v>
+        <v>200.6381949013624</v>
       </c>
       <c r="G45" t="n">
-        <v>115.6855955713922</v>
+        <v>115.6855955713921</v>
       </c>
       <c r="H45" t="n">
-        <v>78.1268901826417</v>
+        <v>78.12689018264163</v>
       </c>
       <c r="I45" t="n">
-        <v>92.72113659383794</v>
+        <v>118.7848097542955</v>
       </c>
       <c r="J45" t="n">
-        <v>457.3271891961749</v>
+        <v>483.3908623566324</v>
       </c>
       <c r="K45" t="n">
-        <v>525.7751344345204</v>
+        <v>551.838807594978</v>
       </c>
       <c r="L45" t="n">
-        <v>617.8118438085675</v>
+        <v>643.8755169690251</v>
       </c>
       <c r="M45" t="n">
-        <v>725.2143425569506</v>
+        <v>751.2780157174082</v>
       </c>
       <c r="N45" t="n">
-        <v>835.4594658610939</v>
+        <v>861.5231390215516</v>
       </c>
       <c r="O45" t="n">
-        <v>936.3122155513057</v>
+        <v>962.3758887117634</v>
       </c>
       <c r="P45" t="n">
-        <v>1017.255438513173</v>
+        <v>1043.319111673631</v>
       </c>
       <c r="Q45" t="n">
-        <v>1583.461442488408</v>
+        <v>1638.166451267676</v>
       </c>
       <c r="R45" t="n">
         <v>1726.952201754327</v>
@@ -7766,13 +7766,13 @@
         <v>1167.66906830352</v>
       </c>
       <c r="W45" t="n">
-        <v>982.3463140367141</v>
+        <v>982.3463140367139</v>
       </c>
       <c r="X45" t="n">
-        <v>827.4788782755941</v>
+        <v>827.478878275594</v>
       </c>
       <c r="Y45" t="n">
-        <v>700.9930990548148</v>
+        <v>700.9930990548147</v>
       </c>
     </row>
     <row r="46">
@@ -7791,22 +7791,22 @@
         <v>804.255114352261</v>
       </c>
       <c r="E46" t="n">
-        <v>634.4971106029983</v>
+        <v>634.4971106029982</v>
       </c>
       <c r="F46" t="n">
-        <v>457.7900565647545</v>
+        <v>457.7900565647544</v>
       </c>
       <c r="G46" t="n">
-        <v>292.5613670168723</v>
+        <v>292.5613670168722</v>
       </c>
       <c r="H46" t="n">
-        <v>155.8829067700802</v>
+        <v>155.8829067700801</v>
       </c>
       <c r="I46" t="n">
-        <v>78.1268901826417</v>
+        <v>78.12689018264163</v>
       </c>
       <c r="J46" t="n">
-        <v>189.8312326722278</v>
+        <v>189.8312326722277</v>
       </c>
       <c r="K46" t="n">
         <v>505.8772172179259</v>
@@ -7987,22 +7987,22 @@
         <v>41.31500304752735</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="N2" t="n">
-        <v>41.31500304752736</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="P2" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,25 +8057,25 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>13.31876740878122</v>
       </c>
-      <c r="K3" t="n">
+      <c r="P3" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>41.31500304752734</v>
@@ -8142,19 +8142,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>41.31500304752736</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>39.64570999510201</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8233,13 +8233,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="R5" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,31 +8294,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K6" t="n">
+      <c r="N6" t="n">
         <v>41.31500304752736</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q6" t="n">
         <v>39.64570999510201</v>
       </c>
       <c r="R6" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
+        <v>41.31500304752736</v>
+      </c>
+      <c r="O7" t="n">
+        <v>39.64570999510201</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="O7" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="K8" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K8" t="n">
-        <v>41.31500304752736</v>
-      </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,16 +8531,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>13.31876740878122</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>41.31500304752734</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>41.31500304752734</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K10" t="n">
+      <c r="N10" t="n">
         <v>41.31500304752736</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="P10" t="n">
-        <v>41.31500304752734</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8692,7 +8692,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>200.4549685363129</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>841.7548938403625</v>
+        <v>28.56909802189193</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8713,7 +8713,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>272.5791072595401</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>868.0987548099069</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>95.36458465859596</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,22 +8929,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>850.3024444169403</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>833.797519371471</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>28.56909802189011</v>
       </c>
       <c r="P14" t="n">
-        <v>23.92384816436379</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9005,13 +9005,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>298.9060498458609</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>517.2703060740058</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>105.3140634042657</v>
       </c>
       <c r="N17" t="n">
-        <v>1127.429530081014</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>236.256086704183</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>517.2703060740062</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>63.09875688391139</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,10 +9406,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>61.53001269209835</v>
       </c>
       <c r="M20" t="n">
-        <v>1112.853396319874</v>
+        <v>1129.703208543338</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9418,13 +9418,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>517.2703060740062</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>63.09875688391139</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1129.703208543338</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1127.429530081014</v>
+        <v>201.152749952299</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>690.1689055436937</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>490.9433634876849</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>89.42569947023253</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>201.1527499522972</v>
       </c>
       <c r="M26" t="n">
-        <v>1129.703208543338</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1127.429530081014</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>690.1689055436937</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>135.4601410046666</v>
+        <v>490.943363487685</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10117,10 +10117,10 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>786.0075920917275</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1129.703208543338</v>
+        <v>829.7916428038948</v>
       </c>
       <c r="N29" t="n">
         <v>1127.429530081014</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>490.9433634876849</v>
       </c>
       <c r="L30" t="n">
-        <v>845.1069979590691</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10354,25 +10354,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1129.703208543338</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>201.1527499522981</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>535.1691634922881</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
@@ -10451,7 +10451,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>89.42569947023253</v>
+        <v>63.09875688391139</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,22 +10588,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>786.0075920917266</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1129.703208543339</v>
+        <v>1129.703208543338</v>
       </c>
       <c r="N35" t="n">
         <v>1127.429530081014</v>
       </c>
       <c r="O35" t="n">
-        <v>939.4114221290106</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>272.5791072595404</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>517.2703060740059</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1129.703208543339</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1127.429530081014</v>
+        <v>201.152749952299</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>786.0075920917279</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>517.2703060740059</v>
+        <v>490.943363487685</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11062,10 +11062,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>200.4549685363138</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>850.3024444169396</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,16 +11074,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>841.7548938403625</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458549</v>
+        <v>14.94329485080425</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>298.9060498458616</v>
+        <v>272.5791072595401</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>29.59227686655606</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11311,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>841.7548938403625</v>
+        <v>841.7548938403615</v>
       </c>
       <c r="P44" t="n">
-        <v>746.3725128128917</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>517.2703060740064</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>63.09875688391116</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>101.6860190507302</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>29.3737848512877</v>
+        <v>278.0434075022746</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23314,13 +23314,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.5660605529466</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>365.5852878096015</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23506,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>381.9527472238594</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>278.0434075022746</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>64.57991364897669</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>245.926858540859</v>
+        <v>396.5836142728854</v>
       </c>
       <c r="H41" t="n">
-        <v>278.0434075022746</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>214.3635095521018</v>
       </c>
       <c r="U41" t="n">
-        <v>256.5660605529466</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>59.79680722428952</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25873,16 +25873,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>181.7333764151621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>396.5836142728854</v>
       </c>
       <c r="H44" t="n">
-        <v>278.0434075022746</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>64.57991364897669</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T44" t="n">
         <v>214.3635095521018</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>105.0092891221203</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>464506.7018437538</v>
+        <v>464506.7018437537</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>464506.7018437538</v>
+        <v>464506.7018437536</v>
       </c>
     </row>
     <row r="7">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>567149.9088953387</v>
+        <v>567149.9088953385</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>464506.7018437539</v>
+        <v>464506.7018437535</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>464506.7018437538</v>
+        <v>464506.7018437535</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>509339.9538958882</v>
+      </c>
+      <c r="C2" t="n">
         <v>509339.9538958881</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>509339.953895888</v>
       </c>
-      <c r="D2" t="n">
-        <v>509339.9538958881</v>
-      </c>
       <c r="E2" t="n">
-        <v>423168.9140523286</v>
+        <v>423168.9140523284</v>
       </c>
       <c r="F2" t="n">
-        <v>423168.9140523284</v>
+        <v>423168.9140523283</v>
       </c>
       <c r="G2" t="n">
-        <v>509339.9538958881</v>
+        <v>509339.9538958882</v>
       </c>
       <c r="H2" t="n">
-        <v>509339.9538958881</v>
+        <v>509339.9538958882</v>
       </c>
       <c r="I2" t="n">
         <v>509339.9538958882</v>
@@ -26343,19 +26343,19 @@
         <v>509339.9538958882</v>
       </c>
       <c r="L2" t="n">
-        <v>509339.9538958883</v>
+        <v>509339.9538958882</v>
       </c>
       <c r="M2" t="n">
-        <v>509339.9538958883</v>
+        <v>509339.9538958881</v>
       </c>
       <c r="N2" t="n">
         <v>509339.9538958883</v>
       </c>
       <c r="O2" t="n">
-        <v>423168.9140523285</v>
+        <v>423168.9140523282</v>
       </c>
       <c r="P2" t="n">
-        <v>423168.9140523286</v>
+        <v>423168.9140523283</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13845.60776629648</v>
+        <v>13845.60776629651</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80480.12965532507</v>
+        <v>80480.12965532529</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10809.82265736726</v>
+        <v>10809.82265736714</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>233073.305243982</v>
+        <v>233073.3052439819</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>108829.5250961499</v>
       </c>
       <c r="F4" t="n">
-        <v>108829.5250961499</v>
+        <v>108829.5250961498</v>
       </c>
       <c r="G4" t="n">
         <v>139046.468059996</v>
@@ -26438,13 +26438,13 @@
         <v>139046.468059996</v>
       </c>
       <c r="I4" t="n">
-        <v>139046.4680599959</v>
+        <v>139046.468059996</v>
       </c>
       <c r="J4" t="n">
         <v>139046.4680599959</v>
       </c>
       <c r="K4" t="n">
-        <v>139046.4680599959</v>
+        <v>139046.468059996</v>
       </c>
       <c r="L4" t="n">
         <v>139046.468059996</v>
@@ -26456,10 +26456,10 @@
         <v>139046.468059996</v>
       </c>
       <c r="O4" t="n">
-        <v>108829.5250961499</v>
+        <v>108829.5250961498</v>
       </c>
       <c r="P4" t="n">
-        <v>108829.5250961499</v>
+        <v>108829.5250961498</v>
       </c>
     </row>
     <row r="5">
@@ -26481,37 +26481,37 @@
         <v>63715.93143773224</v>
       </c>
       <c r="F5" t="n">
-        <v>63715.93143773224</v>
+        <v>63715.93143773221</v>
       </c>
       <c r="G5" t="n">
-        <v>81568.75768887244</v>
+        <v>81568.75768887247</v>
       </c>
       <c r="H5" t="n">
-        <v>81568.75768887244</v>
+        <v>81568.75768887247</v>
       </c>
       <c r="I5" t="n">
-        <v>81568.75768887244</v>
+        <v>81568.75768887247</v>
       </c>
       <c r="J5" t="n">
         <v>81568.75768887244</v>
       </c>
       <c r="K5" t="n">
+        <v>81568.75768887247</v>
+      </c>
+      <c r="L5" t="n">
+        <v>81568.75768887246</v>
+      </c>
+      <c r="M5" t="n">
         <v>81568.75768887244</v>
       </c>
-      <c r="L5" t="n">
-        <v>81568.75768887244</v>
-      </c>
-      <c r="M5" t="n">
-        <v>81568.75768887246</v>
-      </c>
       <c r="N5" t="n">
-        <v>81568.75768887246</v>
+        <v>81568.75768887247</v>
       </c>
       <c r="O5" t="n">
-        <v>63715.93143773226</v>
+        <v>63715.9314377322</v>
       </c>
       <c r="P5" t="n">
-        <v>63715.93143773226</v>
+        <v>63715.9314377322</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>158902.4071943162</v>
+        <v>158902.4071943163</v>
       </c>
       <c r="C6" t="n">
-        <v>172748.0149606126</v>
+        <v>172748.0149606127</v>
       </c>
       <c r="D6" t="n">
         <v>172748.0149606126</v>
       </c>
       <c r="E6" t="n">
-        <v>-188552.8425750385</v>
+        <v>-188779.6084693638</v>
       </c>
       <c r="F6" t="n">
-        <v>250623.4575184463</v>
+        <v>250396.6916241213</v>
       </c>
       <c r="G6" t="n">
-        <v>208244.5984916945</v>
+        <v>208244.5984916944</v>
       </c>
       <c r="H6" t="n">
-        <v>288724.7281470196</v>
+        <v>288724.7281470198</v>
       </c>
       <c r="I6" t="n">
-        <v>288724.7281470198</v>
+        <v>288724.7281470197</v>
       </c>
       <c r="J6" t="n">
         <v>277914.9054896526</v>
       </c>
       <c r="K6" t="n">
-        <v>288724.7281470199</v>
+        <v>288724.7281470196</v>
       </c>
       <c r="L6" t="n">
-        <v>288724.7281470199</v>
+        <v>288724.7281470198</v>
       </c>
       <c r="M6" t="n">
-        <v>55651.42290303798</v>
+        <v>55651.42290303788</v>
       </c>
       <c r="N6" t="n">
         <v>288724.7281470199</v>
       </c>
       <c r="O6" t="n">
-        <v>250623.4575184463</v>
+        <v>250396.691624121</v>
       </c>
       <c r="P6" t="n">
-        <v>250623.4575184464</v>
+        <v>250396.6916241212</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>199.059399033237</v>
+        <v>199.0593990332371</v>
       </c>
       <c r="F3" t="n">
-        <v>199.059399033237</v>
+        <v>199.0593990332371</v>
       </c>
       <c r="G3" t="n">
-        <v>199.059399033237</v>
+        <v>199.0593990332371</v>
       </c>
       <c r="H3" t="n">
-        <v>199.059399033237</v>
+        <v>199.0593990332371</v>
       </c>
       <c r="I3" t="n">
-        <v>199.059399033237</v>
+        <v>199.0593990332371</v>
       </c>
       <c r="J3" t="n">
-        <v>199.059399033237</v>
+        <v>199.0593990332371</v>
       </c>
       <c r="K3" t="n">
-        <v>199.059399033237</v>
+        <v>199.0593990332371</v>
       </c>
       <c r="L3" t="n">
-        <v>199.059399033237</v>
+        <v>199.0593990332371</v>
       </c>
       <c r="M3" t="n">
-        <v>199.059399033237</v>
+        <v>199.0593990332371</v>
       </c>
       <c r="N3" t="n">
-        <v>199.059399033237</v>
+        <v>199.0593990332371</v>
       </c>
       <c r="O3" t="n">
-        <v>199.059399033237</v>
+        <v>199.0593990332371</v>
       </c>
       <c r="P3" t="n">
-        <v>199.059399033237</v>
+        <v>199.0593990332371</v>
       </c>
     </row>
     <row r="4">
@@ -26798,10 +26798,10 @@
         <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
-        <v>976.586127283021</v>
+        <v>976.5861272830209</v>
       </c>
       <c r="F4" t="n">
-        <v>976.586127283021</v>
+        <v>976.5861272830205</v>
       </c>
       <c r="G4" t="n">
         <v>1270.218137992564</v>
@@ -26828,10 +26828,10 @@
         <v>1270.218137992564</v>
       </c>
       <c r="O4" t="n">
-        <v>976.5861272830213</v>
+        <v>976.5861272830203</v>
       </c>
       <c r="P4" t="n">
-        <v>976.5861272830213</v>
+        <v>976.5861272830203</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>199.059399033237</v>
+        <v>199.0593990332371</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>935.2711242354936</v>
+        <v>935.2711242354935</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>293.6320107095429</v>
+        <v>293.6320107095437</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>41.3150030475274</v>
+        <v>41.31500304752694</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>935.2711242354939</v>
+        <v>935.2711242354933</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>935.2711242354936</v>
+        <v>935.2711242354935</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>293.6320107095429</v>
+        <v>293.6320107095437</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27457,19 +27457,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>120.0908620689655</v>
+        <v>78.77585902143818</v>
       </c>
       <c r="C3" t="n">
-        <v>69.00164186746204</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D3" t="n">
-        <v>52.82438291738493</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E3" t="n">
         <v>51.86420747878847</v>
       </c>
       <c r="F3" t="n">
-        <v>41.23499695247265</v>
+        <v>82.55</v>
       </c>
       <c r="G3" t="n">
         <v>84.53123883647795</v>
@@ -27520,10 +27520,10 @@
         <v>197.1263427586206</v>
       </c>
       <c r="W3" t="n">
-        <v>183.4695267241379</v>
+        <v>147.0792720398758</v>
       </c>
       <c r="X3" t="n">
-        <v>153.3187614035088</v>
+        <v>112.0037583559815</v>
       </c>
       <c r="Y3" t="n">
         <v>125.2209214285714</v>
@@ -27554,7 +27554,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>97.18814951900188</v>
+        <v>123.316540963949</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>116.333951967456</v>
       </c>
       <c r="T4" t="n">
         <v>202.1056489098019</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>234.3336676918984</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>254.1195287669911</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>183.8304709315055</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27694,19 +27694,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>120.0908620689655</v>
+        <v>78.77585902143818</v>
       </c>
       <c r="C6" t="n">
         <v>69.00164186746204</v>
       </c>
       <c r="D6" t="n">
-        <v>52.82438291738493</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E6" t="n">
-        <v>51.86420747878847</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F6" t="n">
-        <v>41.23499695247265</v>
+        <v>82.55</v>
       </c>
       <c r="G6" t="n">
         <v>84.53123883647795</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>62.82088317610075</v>
+        <v>21.5058801285734</v>
       </c>
       <c r="T6" t="n">
         <v>128.8768572327044</v>
@@ -27763,7 +27763,7 @@
         <v>153.3187614035088</v>
       </c>
       <c r="Y6" t="n">
-        <v>125.2209214285714</v>
+        <v>83.90591838104407</v>
       </c>
     </row>
     <row r="7">
@@ -27779,22 +27779,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>122.9042098229652</v>
       </c>
       <c r="E7" t="n">
         <v>126.7454206642428</v>
       </c>
       <c r="F7" t="n">
-        <v>138.5497288135992</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>148.7487506218503</v>
       </c>
       <c r="H7" t="n">
-        <v>97.18814951900188</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>46.45834668554406</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -27839,7 +27839,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>201.6228340723943</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -27940,16 +27940,16 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
-        <v>56.78895584205373</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
-        <v>41.23499695247265</v>
+        <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>43.21623578895061</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H9" t="n">
-        <v>0.003292614422299778</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>62.82088317610075</v>
+        <v>21.5058801285734</v>
       </c>
       <c r="T9" t="n">
         <v>128.8768572327044</v>
@@ -27991,13 +27991,13 @@
         <v>174.5731815300314</v>
       </c>
       <c r="V9" t="n">
-        <v>197.1263427586206</v>
+        <v>155.8113397110933</v>
       </c>
       <c r="W9" t="n">
-        <v>183.4695267241379</v>
+        <v>142.1545236766106</v>
       </c>
       <c r="X9" t="n">
-        <v>153.3187614035088</v>
+        <v>116.9285067192467</v>
       </c>
       <c r="Y9" t="n">
         <v>125.2209214285714</v>
@@ -28013,22 +28013,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>155.6494827990271</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>126.7454206642428</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>133.624980450334</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>122.6203591769033</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>123.316540963949</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -28070,13 +28070,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>242.7709500007465</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>227.991137322044</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>201.6228340723943</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8002387900833643</v>
+        <v>0.8002387900833646</v>
       </c>
       <c r="H11" t="n">
-        <v>8.195445508941257</v>
+        <v>8.19544550894126</v>
       </c>
       <c r="I11" t="n">
-        <v>30.85120595468893</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J11" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983802</v>
       </c>
       <c r="K11" t="n">
-        <v>101.7933749940668</v>
+        <v>101.7933749940669</v>
       </c>
       <c r="L11" t="n">
-        <v>126.2836828660806</v>
+        <v>126.2836828660807</v>
       </c>
       <c r="M11" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N11" t="n">
-        <v>142.78860791155</v>
+        <v>142.7886079115501</v>
       </c>
       <c r="O11" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P11" t="n">
         <v>115.0753383124755</v>
       </c>
       <c r="Q11" t="n">
-        <v>86.41678664261497</v>
+        <v>86.41678664261499</v>
       </c>
       <c r="R11" t="n">
-        <v>50.26799989757418</v>
+        <v>50.2679998975742</v>
       </c>
       <c r="S11" t="n">
-        <v>18.23544142902468</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T11" t="n">
-        <v>3.503045303589929</v>
+        <v>3.50304530358993</v>
       </c>
       <c r="U11" t="n">
-        <v>0.06401910320666913</v>
+        <v>0.06401910320666916</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.42816549980734</v>
+        <v>0.4281654998073402</v>
       </c>
       <c r="H12" t="n">
-        <v>4.135177327086679</v>
+        <v>4.135177327086681</v>
       </c>
       <c r="I12" t="n">
         <v>14.74166304161237</v>
       </c>
       <c r="J12" t="n">
-        <v>40.45225013749962</v>
+        <v>40.45225013749963</v>
       </c>
       <c r="K12" t="n">
-        <v>69.13933862459139</v>
+        <v>69.13933862459142</v>
       </c>
       <c r="L12" t="n">
-        <v>92.96637310509811</v>
+        <v>92.96637310509814</v>
       </c>
       <c r="M12" t="n">
         <v>108.4873724731142</v>
@@ -31858,22 +31858,22 @@
         <v>101.8714643335473</v>
       </c>
       <c r="P12" t="n">
-        <v>81.76083127461391</v>
+        <v>81.76083127461393</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.65495046663519</v>
+        <v>54.65495046663522</v>
       </c>
       <c r="R12" t="n">
-        <v>26.58381936523117</v>
+        <v>26.58381936523119</v>
       </c>
       <c r="S12" t="n">
-        <v>7.952986367035455</v>
+        <v>7.952986367035458</v>
       </c>
       <c r="T12" t="n">
-        <v>1.725807431240988</v>
+        <v>1.725807431240989</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02816878288206185</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3589595720271487</v>
+        <v>0.3589595720271488</v>
       </c>
       <c r="H13" t="n">
-        <v>3.191476922205015</v>
+        <v>3.191476922205017</v>
       </c>
       <c r="I13" t="n">
         <v>10.79489331150735</v>
       </c>
       <c r="J13" t="n">
-        <v>25.37844174231941</v>
+        <v>25.37844174231942</v>
       </c>
       <c r="K13" t="n">
-        <v>41.70457573188145</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L13" t="n">
-        <v>53.36749855392718</v>
+        <v>53.36749855392721</v>
       </c>
       <c r="M13" t="n">
-        <v>56.26854454967386</v>
+        <v>56.26854454967388</v>
       </c>
       <c r="N13" t="n">
-        <v>54.93060432666362</v>
+        <v>54.93060432666364</v>
       </c>
       <c r="O13" t="n">
-        <v>50.73730387161918</v>
+        <v>50.7373038716192</v>
       </c>
       <c r="P13" t="n">
-        <v>43.41452860226531</v>
+        <v>43.41452860226533</v>
       </c>
       <c r="Q13" t="n">
-        <v>30.05796925401879</v>
+        <v>30.0579692540188</v>
       </c>
       <c r="R13" t="n">
-        <v>16.14012766587524</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S13" t="n">
-        <v>6.255686359782216</v>
+        <v>6.255686359782219</v>
       </c>
       <c r="T13" t="n">
-        <v>1.533736353206907</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01957961301966268</v>
+        <v>0.01957961301966269</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8002387900833643</v>
+        <v>0.8002387900833646</v>
       </c>
       <c r="H14" t="n">
-        <v>8.195445508941257</v>
+        <v>8.19544550894126</v>
       </c>
       <c r="I14" t="n">
-        <v>30.85120595468893</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J14" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983802</v>
       </c>
       <c r="K14" t="n">
-        <v>101.7933749940668</v>
+        <v>101.7933749940669</v>
       </c>
       <c r="L14" t="n">
-        <v>126.2836828660806</v>
+        <v>126.2836828660807</v>
       </c>
       <c r="M14" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N14" t="n">
-        <v>142.78860791155</v>
+        <v>142.7886079115501</v>
       </c>
       <c r="O14" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P14" t="n">
         <v>115.0753383124755</v>
       </c>
       <c r="Q14" t="n">
-        <v>86.41678664261497</v>
+        <v>86.41678664261499</v>
       </c>
       <c r="R14" t="n">
-        <v>50.26799989757418</v>
+        <v>50.2679998975742</v>
       </c>
       <c r="S14" t="n">
-        <v>18.23544142902468</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T14" t="n">
-        <v>3.503045303589929</v>
+        <v>3.50304530358993</v>
       </c>
       <c r="U14" t="n">
-        <v>0.06401910320666913</v>
+        <v>0.06401910320666916</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.42816549980734</v>
+        <v>0.4281654998073402</v>
       </c>
       <c r="H15" t="n">
-        <v>4.135177327086679</v>
+        <v>4.135177327086681</v>
       </c>
       <c r="I15" t="n">
         <v>14.74166304161237</v>
       </c>
       <c r="J15" t="n">
-        <v>40.45225013749962</v>
+        <v>40.45225013749963</v>
       </c>
       <c r="K15" t="n">
-        <v>69.13933862459139</v>
+        <v>69.13933862459142</v>
       </c>
       <c r="L15" t="n">
-        <v>92.96637310509811</v>
+        <v>92.96637310509814</v>
       </c>
       <c r="M15" t="n">
         <v>108.4873724731142</v>
@@ -32095,22 +32095,22 @@
         <v>101.8714643335473</v>
       </c>
       <c r="P15" t="n">
-        <v>81.76083127461391</v>
+        <v>81.76083127461393</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.65495046663519</v>
+        <v>54.65495046663522</v>
       </c>
       <c r="R15" t="n">
-        <v>26.58381936523117</v>
+        <v>26.58381936523119</v>
       </c>
       <c r="S15" t="n">
-        <v>7.952986367035455</v>
+        <v>7.952986367035458</v>
       </c>
       <c r="T15" t="n">
-        <v>1.725807431240988</v>
+        <v>1.725807431240989</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02816878288206185</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3589595720271487</v>
+        <v>0.3589595720271488</v>
       </c>
       <c r="H16" t="n">
-        <v>3.191476922205015</v>
+        <v>3.191476922205017</v>
       </c>
       <c r="I16" t="n">
         <v>10.79489331150735</v>
       </c>
       <c r="J16" t="n">
-        <v>25.37844174231941</v>
+        <v>25.37844174231942</v>
       </c>
       <c r="K16" t="n">
-        <v>41.70457573188145</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L16" t="n">
-        <v>53.36749855392718</v>
+        <v>53.36749855392721</v>
       </c>
       <c r="M16" t="n">
-        <v>56.26854454967386</v>
+        <v>56.26854454967388</v>
       </c>
       <c r="N16" t="n">
-        <v>54.93060432666362</v>
+        <v>54.93060432666364</v>
       </c>
       <c r="O16" t="n">
-        <v>50.73730387161918</v>
+        <v>50.7373038716192</v>
       </c>
       <c r="P16" t="n">
-        <v>43.41452860226531</v>
+        <v>43.41452860226533</v>
       </c>
       <c r="Q16" t="n">
-        <v>30.05796925401879</v>
+        <v>30.0579692540188</v>
       </c>
       <c r="R16" t="n">
-        <v>16.14012766587524</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S16" t="n">
-        <v>6.255686359782216</v>
+        <v>6.255686359782219</v>
       </c>
       <c r="T16" t="n">
-        <v>1.533736353206907</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01957961301966268</v>
+        <v>0.01957961301966269</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8002387900833643</v>
+        <v>0.8002387900833646</v>
       </c>
       <c r="H17" t="n">
-        <v>8.195445508941257</v>
+        <v>8.19544550894126</v>
       </c>
       <c r="I17" t="n">
-        <v>30.85120595468893</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J17" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983802</v>
       </c>
       <c r="K17" t="n">
-        <v>101.7933749940668</v>
+        <v>101.7933749940669</v>
       </c>
       <c r="L17" t="n">
-        <v>126.2836828660806</v>
+        <v>126.2836828660807</v>
       </c>
       <c r="M17" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N17" t="n">
-        <v>142.78860791155</v>
+        <v>142.7886079115501</v>
       </c>
       <c r="O17" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P17" t="n">
         <v>115.0753383124755</v>
       </c>
       <c r="Q17" t="n">
-        <v>86.41678664261497</v>
+        <v>86.41678664261499</v>
       </c>
       <c r="R17" t="n">
-        <v>50.26799989757418</v>
+        <v>50.2679998975742</v>
       </c>
       <c r="S17" t="n">
-        <v>18.23544142902468</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T17" t="n">
-        <v>3.503045303589929</v>
+        <v>3.50304530358993</v>
       </c>
       <c r="U17" t="n">
-        <v>0.06401910320666913</v>
+        <v>0.06401910320666916</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.42816549980734</v>
+        <v>0.4281654998073402</v>
       </c>
       <c r="H18" t="n">
-        <v>4.135177327086679</v>
+        <v>4.135177327086681</v>
       </c>
       <c r="I18" t="n">
         <v>14.74166304161237</v>
       </c>
       <c r="J18" t="n">
-        <v>40.45225013749962</v>
+        <v>40.45225013749963</v>
       </c>
       <c r="K18" t="n">
-        <v>69.13933862459139</v>
+        <v>69.13933862459142</v>
       </c>
       <c r="L18" t="n">
-        <v>92.96637310509811</v>
+        <v>92.96637310509814</v>
       </c>
       <c r="M18" t="n">
         <v>108.4873724731142</v>
@@ -32332,22 +32332,22 @@
         <v>101.8714643335473</v>
       </c>
       <c r="P18" t="n">
-        <v>81.76083127461391</v>
+        <v>81.76083127461393</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.65495046663519</v>
+        <v>54.65495046663522</v>
       </c>
       <c r="R18" t="n">
-        <v>26.58381936523117</v>
+        <v>26.58381936523119</v>
       </c>
       <c r="S18" t="n">
-        <v>7.952986367035455</v>
+        <v>7.952986367035458</v>
       </c>
       <c r="T18" t="n">
-        <v>1.725807431240988</v>
+        <v>1.725807431240989</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02816878288206185</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3589595720271487</v>
+        <v>0.3589595720271488</v>
       </c>
       <c r="H19" t="n">
-        <v>3.191476922205015</v>
+        <v>3.191476922205017</v>
       </c>
       <c r="I19" t="n">
         <v>10.79489331150735</v>
       </c>
       <c r="J19" t="n">
-        <v>25.37844174231941</v>
+        <v>25.37844174231942</v>
       </c>
       <c r="K19" t="n">
-        <v>41.70457573188145</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L19" t="n">
-        <v>53.36749855392718</v>
+        <v>53.36749855392721</v>
       </c>
       <c r="M19" t="n">
-        <v>56.26854454967386</v>
+        <v>56.26854454967388</v>
       </c>
       <c r="N19" t="n">
-        <v>54.93060432666362</v>
+        <v>54.93060432666364</v>
       </c>
       <c r="O19" t="n">
-        <v>50.73730387161918</v>
+        <v>50.7373038716192</v>
       </c>
       <c r="P19" t="n">
-        <v>43.41452860226531</v>
+        <v>43.41452860226533</v>
       </c>
       <c r="Q19" t="n">
-        <v>30.05796925401879</v>
+        <v>30.0579692540188</v>
       </c>
       <c r="R19" t="n">
-        <v>16.14012766587524</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S19" t="n">
-        <v>6.255686359782216</v>
+        <v>6.255686359782219</v>
       </c>
       <c r="T19" t="n">
-        <v>1.533736353206907</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01957961301966268</v>
+        <v>0.01957961301966269</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8002387900833643</v>
+        <v>0.8002387900833646</v>
       </c>
       <c r="H20" t="n">
-        <v>8.195445508941257</v>
+        <v>8.19544550894126</v>
       </c>
       <c r="I20" t="n">
-        <v>30.85120595468893</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J20" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983802</v>
       </c>
       <c r="K20" t="n">
-        <v>101.7933749940668</v>
+        <v>101.7933749940669</v>
       </c>
       <c r="L20" t="n">
-        <v>126.2836828660806</v>
+        <v>126.2836828660807</v>
       </c>
       <c r="M20" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N20" t="n">
-        <v>142.78860791155</v>
+        <v>142.7886079115501</v>
       </c>
       <c r="O20" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P20" t="n">
         <v>115.0753383124755</v>
       </c>
       <c r="Q20" t="n">
-        <v>86.41678664261497</v>
+        <v>86.41678664261499</v>
       </c>
       <c r="R20" t="n">
-        <v>50.26799989757418</v>
+        <v>50.2679998975742</v>
       </c>
       <c r="S20" t="n">
-        <v>18.23544142902468</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T20" t="n">
-        <v>3.503045303589929</v>
+        <v>3.50304530358993</v>
       </c>
       <c r="U20" t="n">
-        <v>0.06401910320666913</v>
+        <v>0.06401910320666916</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.42816549980734</v>
+        <v>0.4281654998073402</v>
       </c>
       <c r="H21" t="n">
-        <v>4.135177327086679</v>
+        <v>4.135177327086681</v>
       </c>
       <c r="I21" t="n">
         <v>14.74166304161237</v>
       </c>
       <c r="J21" t="n">
-        <v>40.45225013749962</v>
+        <v>40.45225013749963</v>
       </c>
       <c r="K21" t="n">
-        <v>69.13933862459139</v>
+        <v>69.13933862459142</v>
       </c>
       <c r="L21" t="n">
-        <v>92.96637310509811</v>
+        <v>92.96637310509814</v>
       </c>
       <c r="M21" t="n">
         <v>108.4873724731142</v>
@@ -32569,22 +32569,22 @@
         <v>101.8714643335473</v>
       </c>
       <c r="P21" t="n">
-        <v>81.76083127461391</v>
+        <v>81.76083127461393</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.65495046663519</v>
+        <v>54.65495046663522</v>
       </c>
       <c r="R21" t="n">
-        <v>26.58381936523117</v>
+        <v>26.58381936523119</v>
       </c>
       <c r="S21" t="n">
-        <v>7.952986367035455</v>
+        <v>7.952986367035458</v>
       </c>
       <c r="T21" t="n">
-        <v>1.725807431240988</v>
+        <v>1.725807431240989</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02816878288206185</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3589595720271487</v>
+        <v>0.3589595720271488</v>
       </c>
       <c r="H22" t="n">
-        <v>3.191476922205015</v>
+        <v>3.191476922205017</v>
       </c>
       <c r="I22" t="n">
         <v>10.79489331150735</v>
       </c>
       <c r="J22" t="n">
-        <v>25.37844174231941</v>
+        <v>25.37844174231942</v>
       </c>
       <c r="K22" t="n">
-        <v>41.70457573188145</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L22" t="n">
-        <v>53.36749855392718</v>
+        <v>53.36749855392721</v>
       </c>
       <c r="M22" t="n">
-        <v>56.26854454967386</v>
+        <v>56.26854454967388</v>
       </c>
       <c r="N22" t="n">
-        <v>54.93060432666362</v>
+        <v>54.93060432666364</v>
       </c>
       <c r="O22" t="n">
-        <v>50.73730387161918</v>
+        <v>50.7373038716192</v>
       </c>
       <c r="P22" t="n">
-        <v>43.41452860226531</v>
+        <v>43.41452860226533</v>
       </c>
       <c r="Q22" t="n">
-        <v>30.05796925401879</v>
+        <v>30.0579692540188</v>
       </c>
       <c r="R22" t="n">
-        <v>16.14012766587524</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S22" t="n">
-        <v>6.255686359782216</v>
+        <v>6.255686359782219</v>
       </c>
       <c r="T22" t="n">
-        <v>1.533736353206907</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01957961301966268</v>
+        <v>0.01957961301966269</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8002387900833643</v>
+        <v>0.8002387900833646</v>
       </c>
       <c r="H23" t="n">
-        <v>8.195445508941257</v>
+        <v>8.19544550894126</v>
       </c>
       <c r="I23" t="n">
-        <v>30.85120595468893</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J23" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983802</v>
       </c>
       <c r="K23" t="n">
-        <v>101.7933749940668</v>
+        <v>101.7933749940669</v>
       </c>
       <c r="L23" t="n">
-        <v>126.2836828660806</v>
+        <v>126.2836828660807</v>
       </c>
       <c r="M23" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N23" t="n">
-        <v>142.78860791155</v>
+        <v>142.7886079115501</v>
       </c>
       <c r="O23" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P23" t="n">
         <v>115.0753383124755</v>
       </c>
       <c r="Q23" t="n">
-        <v>86.41678664261497</v>
+        <v>86.41678664261499</v>
       </c>
       <c r="R23" t="n">
-        <v>50.26799989757418</v>
+        <v>50.2679998975742</v>
       </c>
       <c r="S23" t="n">
-        <v>18.23544142902468</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T23" t="n">
-        <v>3.503045303589929</v>
+        <v>3.50304530358993</v>
       </c>
       <c r="U23" t="n">
-        <v>0.06401910320666913</v>
+        <v>0.06401910320666916</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.42816549980734</v>
+        <v>0.4281654998073402</v>
       </c>
       <c r="H24" t="n">
-        <v>4.135177327086679</v>
+        <v>4.135177327086681</v>
       </c>
       <c r="I24" t="n">
         <v>14.74166304161237</v>
       </c>
       <c r="J24" t="n">
-        <v>40.45225013749962</v>
+        <v>40.45225013749963</v>
       </c>
       <c r="K24" t="n">
-        <v>69.13933862459139</v>
+        <v>69.13933862459142</v>
       </c>
       <c r="L24" t="n">
-        <v>92.96637310509811</v>
+        <v>92.96637310509814</v>
       </c>
       <c r="M24" t="n">
         <v>108.4873724731142</v>
@@ -32806,22 +32806,22 @@
         <v>101.8714643335473</v>
       </c>
       <c r="P24" t="n">
-        <v>81.76083127461391</v>
+        <v>81.76083127461393</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.65495046663519</v>
+        <v>54.65495046663522</v>
       </c>
       <c r="R24" t="n">
-        <v>26.58381936523117</v>
+        <v>26.58381936523119</v>
       </c>
       <c r="S24" t="n">
-        <v>7.952986367035455</v>
+        <v>7.952986367035458</v>
       </c>
       <c r="T24" t="n">
-        <v>1.725807431240988</v>
+        <v>1.725807431240989</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02816878288206185</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3589595720271487</v>
+        <v>0.3589595720271488</v>
       </c>
       <c r="H25" t="n">
-        <v>3.191476922205015</v>
+        <v>3.191476922205017</v>
       </c>
       <c r="I25" t="n">
         <v>10.79489331150735</v>
       </c>
       <c r="J25" t="n">
-        <v>25.37844174231941</v>
+        <v>25.37844174231942</v>
       </c>
       <c r="K25" t="n">
-        <v>41.70457573188145</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L25" t="n">
-        <v>53.36749855392718</v>
+        <v>53.36749855392721</v>
       </c>
       <c r="M25" t="n">
-        <v>56.26854454967386</v>
+        <v>56.26854454967388</v>
       </c>
       <c r="N25" t="n">
-        <v>54.93060432666362</v>
+        <v>54.93060432666364</v>
       </c>
       <c r="O25" t="n">
-        <v>50.73730387161918</v>
+        <v>50.7373038716192</v>
       </c>
       <c r="P25" t="n">
-        <v>43.41452860226531</v>
+        <v>43.41452860226533</v>
       </c>
       <c r="Q25" t="n">
-        <v>30.05796925401879</v>
+        <v>30.0579692540188</v>
       </c>
       <c r="R25" t="n">
-        <v>16.14012766587524</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S25" t="n">
-        <v>6.255686359782216</v>
+        <v>6.255686359782219</v>
       </c>
       <c r="T25" t="n">
-        <v>1.533736353206907</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01957961301966268</v>
+        <v>0.01957961301966269</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8002387900833643</v>
+        <v>0.8002387900833646</v>
       </c>
       <c r="H26" t="n">
-        <v>8.195445508941257</v>
+        <v>8.19544550894126</v>
       </c>
       <c r="I26" t="n">
-        <v>30.85120595468893</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J26" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983802</v>
       </c>
       <c r="K26" t="n">
-        <v>101.7933749940668</v>
+        <v>101.7933749940669</v>
       </c>
       <c r="L26" t="n">
-        <v>126.2836828660806</v>
+        <v>126.2836828660807</v>
       </c>
       <c r="M26" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N26" t="n">
-        <v>142.78860791155</v>
+        <v>142.7886079115501</v>
       </c>
       <c r="O26" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P26" t="n">
         <v>115.0753383124755</v>
       </c>
       <c r="Q26" t="n">
-        <v>86.41678664261497</v>
+        <v>86.41678664261499</v>
       </c>
       <c r="R26" t="n">
-        <v>50.26799989757418</v>
+        <v>50.2679998975742</v>
       </c>
       <c r="S26" t="n">
-        <v>18.23544142902468</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T26" t="n">
-        <v>3.503045303589929</v>
+        <v>3.50304530358993</v>
       </c>
       <c r="U26" t="n">
-        <v>0.06401910320666913</v>
+        <v>0.06401910320666916</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.42816549980734</v>
+        <v>0.4281654998073402</v>
       </c>
       <c r="H27" t="n">
-        <v>4.135177327086679</v>
+        <v>4.135177327086681</v>
       </c>
       <c r="I27" t="n">
         <v>14.74166304161237</v>
       </c>
       <c r="J27" t="n">
-        <v>40.45225013749962</v>
+        <v>40.45225013749963</v>
       </c>
       <c r="K27" t="n">
-        <v>69.13933862459139</v>
+        <v>69.13933862459142</v>
       </c>
       <c r="L27" t="n">
-        <v>92.96637310509811</v>
+        <v>92.96637310509814</v>
       </c>
       <c r="M27" t="n">
         <v>108.4873724731142</v>
@@ -33043,22 +33043,22 @@
         <v>101.8714643335473</v>
       </c>
       <c r="P27" t="n">
-        <v>81.76083127461391</v>
+        <v>81.76083127461393</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.65495046663519</v>
+        <v>54.65495046663522</v>
       </c>
       <c r="R27" t="n">
-        <v>26.58381936523117</v>
+        <v>26.58381936523119</v>
       </c>
       <c r="S27" t="n">
-        <v>7.952986367035455</v>
+        <v>7.952986367035458</v>
       </c>
       <c r="T27" t="n">
-        <v>1.725807431240988</v>
+        <v>1.725807431240989</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02816878288206185</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3589595720271487</v>
+        <v>0.3589595720271488</v>
       </c>
       <c r="H28" t="n">
-        <v>3.191476922205015</v>
+        <v>3.191476922205017</v>
       </c>
       <c r="I28" t="n">
         <v>10.79489331150735</v>
       </c>
       <c r="J28" t="n">
-        <v>25.37844174231941</v>
+        <v>25.37844174231942</v>
       </c>
       <c r="K28" t="n">
-        <v>41.70457573188145</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L28" t="n">
-        <v>53.36749855392718</v>
+        <v>53.36749855392721</v>
       </c>
       <c r="M28" t="n">
-        <v>56.26854454967386</v>
+        <v>56.26854454967388</v>
       </c>
       <c r="N28" t="n">
-        <v>54.93060432666362</v>
+        <v>54.93060432666364</v>
       </c>
       <c r="O28" t="n">
-        <v>50.73730387161918</v>
+        <v>50.7373038716192</v>
       </c>
       <c r="P28" t="n">
-        <v>43.41452860226531</v>
+        <v>43.41452860226533</v>
       </c>
       <c r="Q28" t="n">
-        <v>30.05796925401879</v>
+        <v>30.0579692540188</v>
       </c>
       <c r="R28" t="n">
-        <v>16.14012766587524</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S28" t="n">
-        <v>6.255686359782216</v>
+        <v>6.255686359782219</v>
       </c>
       <c r="T28" t="n">
-        <v>1.533736353206907</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01957961301966268</v>
+        <v>0.01957961301966269</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8002387900833643</v>
+        <v>0.8002387900833646</v>
       </c>
       <c r="H29" t="n">
-        <v>8.195445508941257</v>
+        <v>8.19544550894126</v>
       </c>
       <c r="I29" t="n">
-        <v>30.85120595468893</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J29" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983802</v>
       </c>
       <c r="K29" t="n">
-        <v>101.7933749940668</v>
+        <v>101.7933749940669</v>
       </c>
       <c r="L29" t="n">
-        <v>126.2836828660806</v>
+        <v>126.2836828660807</v>
       </c>
       <c r="M29" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N29" t="n">
-        <v>142.78860791155</v>
+        <v>142.7886079115501</v>
       </c>
       <c r="O29" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P29" t="n">
         <v>115.0753383124755</v>
       </c>
       <c r="Q29" t="n">
-        <v>86.41678664261497</v>
+        <v>86.41678664261499</v>
       </c>
       <c r="R29" t="n">
-        <v>50.26799989757418</v>
+        <v>50.2679998975742</v>
       </c>
       <c r="S29" t="n">
-        <v>18.23544142902468</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T29" t="n">
-        <v>3.503045303589929</v>
+        <v>3.50304530358993</v>
       </c>
       <c r="U29" t="n">
-        <v>0.06401910320666913</v>
+        <v>0.06401910320666916</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.42816549980734</v>
+        <v>0.4281654998073402</v>
       </c>
       <c r="H30" t="n">
-        <v>4.135177327086679</v>
+        <v>4.135177327086681</v>
       </c>
       <c r="I30" t="n">
         <v>14.74166304161237</v>
       </c>
       <c r="J30" t="n">
-        <v>40.45225013749962</v>
+        <v>40.45225013749963</v>
       </c>
       <c r="K30" t="n">
-        <v>69.13933862459139</v>
+        <v>69.13933862459142</v>
       </c>
       <c r="L30" t="n">
-        <v>92.96637310509811</v>
+        <v>92.96637310509814</v>
       </c>
       <c r="M30" t="n">
         <v>108.4873724731142</v>
@@ -33280,22 +33280,22 @@
         <v>101.8714643335473</v>
       </c>
       <c r="P30" t="n">
-        <v>81.76083127461391</v>
+        <v>81.76083127461393</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.65495046663519</v>
+        <v>54.65495046663522</v>
       </c>
       <c r="R30" t="n">
-        <v>26.58381936523117</v>
+        <v>26.58381936523119</v>
       </c>
       <c r="S30" t="n">
-        <v>7.952986367035455</v>
+        <v>7.952986367035458</v>
       </c>
       <c r="T30" t="n">
-        <v>1.725807431240988</v>
+        <v>1.725807431240989</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02816878288206185</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3589595720271487</v>
+        <v>0.3589595720271488</v>
       </c>
       <c r="H31" t="n">
-        <v>3.191476922205015</v>
+        <v>3.191476922205017</v>
       </c>
       <c r="I31" t="n">
         <v>10.79489331150735</v>
       </c>
       <c r="J31" t="n">
-        <v>25.37844174231941</v>
+        <v>25.37844174231942</v>
       </c>
       <c r="K31" t="n">
-        <v>41.70457573188145</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L31" t="n">
-        <v>53.36749855392718</v>
+        <v>53.36749855392721</v>
       </c>
       <c r="M31" t="n">
-        <v>56.26854454967386</v>
+        <v>56.26854454967388</v>
       </c>
       <c r="N31" t="n">
-        <v>54.93060432666362</v>
+        <v>54.93060432666364</v>
       </c>
       <c r="O31" t="n">
-        <v>50.73730387161918</v>
+        <v>50.7373038716192</v>
       </c>
       <c r="P31" t="n">
-        <v>43.41452860226531</v>
+        <v>43.41452860226533</v>
       </c>
       <c r="Q31" t="n">
-        <v>30.05796925401879</v>
+        <v>30.0579692540188</v>
       </c>
       <c r="R31" t="n">
-        <v>16.14012766587524</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S31" t="n">
-        <v>6.255686359782216</v>
+        <v>6.255686359782219</v>
       </c>
       <c r="T31" t="n">
-        <v>1.533736353206907</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01957961301966268</v>
+        <v>0.01957961301966269</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8002387900833643</v>
+        <v>0.8002387900833646</v>
       </c>
       <c r="H32" t="n">
-        <v>8.195445508941257</v>
+        <v>8.19544550894126</v>
       </c>
       <c r="I32" t="n">
-        <v>30.85120595468893</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J32" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983802</v>
       </c>
       <c r="K32" t="n">
-        <v>101.7933749940668</v>
+        <v>101.7933749940669</v>
       </c>
       <c r="L32" t="n">
-        <v>126.2836828660806</v>
+        <v>126.2836828660807</v>
       </c>
       <c r="M32" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N32" t="n">
-        <v>142.78860791155</v>
+        <v>142.7886079115501</v>
       </c>
       <c r="O32" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P32" t="n">
         <v>115.0753383124755</v>
       </c>
       <c r="Q32" t="n">
-        <v>86.41678664261497</v>
+        <v>86.41678664261499</v>
       </c>
       <c r="R32" t="n">
-        <v>50.26799989757418</v>
+        <v>50.2679998975742</v>
       </c>
       <c r="S32" t="n">
-        <v>18.23544142902468</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T32" t="n">
-        <v>3.503045303589929</v>
+        <v>3.50304530358993</v>
       </c>
       <c r="U32" t="n">
-        <v>0.06401910320666913</v>
+        <v>0.06401910320666916</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.42816549980734</v>
+        <v>0.4281654998073402</v>
       </c>
       <c r="H33" t="n">
-        <v>4.135177327086679</v>
+        <v>4.135177327086681</v>
       </c>
       <c r="I33" t="n">
         <v>14.74166304161237</v>
       </c>
       <c r="J33" t="n">
-        <v>40.45225013749962</v>
+        <v>40.45225013749963</v>
       </c>
       <c r="K33" t="n">
-        <v>69.13933862459139</v>
+        <v>69.13933862459142</v>
       </c>
       <c r="L33" t="n">
-        <v>92.96637310509811</v>
+        <v>92.96637310509814</v>
       </c>
       <c r="M33" t="n">
         <v>108.4873724731142</v>
@@ -33517,22 +33517,22 @@
         <v>101.8714643335473</v>
       </c>
       <c r="P33" t="n">
-        <v>81.76083127461391</v>
+        <v>81.76083127461393</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.65495046663519</v>
+        <v>54.65495046663522</v>
       </c>
       <c r="R33" t="n">
-        <v>26.58381936523117</v>
+        <v>26.58381936523119</v>
       </c>
       <c r="S33" t="n">
-        <v>7.952986367035455</v>
+        <v>7.952986367035458</v>
       </c>
       <c r="T33" t="n">
-        <v>1.725807431240988</v>
+        <v>1.725807431240989</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02816878288206185</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.3589595720271487</v>
+        <v>0.3589595720271488</v>
       </c>
       <c r="H34" t="n">
-        <v>3.191476922205015</v>
+        <v>3.191476922205017</v>
       </c>
       <c r="I34" t="n">
         <v>10.79489331150735</v>
       </c>
       <c r="J34" t="n">
-        <v>25.37844174231941</v>
+        <v>25.37844174231942</v>
       </c>
       <c r="K34" t="n">
-        <v>41.70457573188145</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L34" t="n">
-        <v>53.36749855392718</v>
+        <v>53.36749855392721</v>
       </c>
       <c r="M34" t="n">
-        <v>56.26854454967386</v>
+        <v>56.26854454967388</v>
       </c>
       <c r="N34" t="n">
-        <v>54.93060432666362</v>
+        <v>54.93060432666364</v>
       </c>
       <c r="O34" t="n">
-        <v>50.73730387161918</v>
+        <v>50.7373038716192</v>
       </c>
       <c r="P34" t="n">
-        <v>43.41452860226531</v>
+        <v>43.41452860226533</v>
       </c>
       <c r="Q34" t="n">
-        <v>30.05796925401879</v>
+        <v>30.0579692540188</v>
       </c>
       <c r="R34" t="n">
-        <v>16.14012766587524</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S34" t="n">
-        <v>6.255686359782216</v>
+        <v>6.255686359782219</v>
       </c>
       <c r="T34" t="n">
-        <v>1.533736353206907</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01957961301966268</v>
+        <v>0.01957961301966269</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8002387900833643</v>
+        <v>0.8002387900833646</v>
       </c>
       <c r="H35" t="n">
-        <v>8.195445508941257</v>
+        <v>8.19544550894126</v>
       </c>
       <c r="I35" t="n">
-        <v>30.85120595468893</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J35" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983802</v>
       </c>
       <c r="K35" t="n">
-        <v>101.7933749940668</v>
+        <v>101.7933749940669</v>
       </c>
       <c r="L35" t="n">
-        <v>126.2836828660806</v>
+        <v>126.2836828660807</v>
       </c>
       <c r="M35" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N35" t="n">
-        <v>142.78860791155</v>
+        <v>142.7886079115501</v>
       </c>
       <c r="O35" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P35" t="n">
         <v>115.0753383124755</v>
       </c>
       <c r="Q35" t="n">
-        <v>86.41678664261497</v>
+        <v>86.41678664261499</v>
       </c>
       <c r="R35" t="n">
-        <v>50.26799989757418</v>
+        <v>50.2679998975742</v>
       </c>
       <c r="S35" t="n">
-        <v>18.23544142902468</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T35" t="n">
-        <v>3.503045303589929</v>
+        <v>3.50304530358993</v>
       </c>
       <c r="U35" t="n">
-        <v>0.06401910320666913</v>
+        <v>0.06401910320666916</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.42816549980734</v>
+        <v>0.4281654998073402</v>
       </c>
       <c r="H36" t="n">
-        <v>4.135177327086679</v>
+        <v>4.135177327086681</v>
       </c>
       <c r="I36" t="n">
         <v>14.74166304161237</v>
       </c>
       <c r="J36" t="n">
-        <v>40.45225013749962</v>
+        <v>40.45225013749963</v>
       </c>
       <c r="K36" t="n">
-        <v>69.13933862459139</v>
+        <v>69.13933862459142</v>
       </c>
       <c r="L36" t="n">
-        <v>92.96637310509811</v>
+        <v>92.96637310509814</v>
       </c>
       <c r="M36" t="n">
         <v>108.4873724731142</v>
@@ -33754,22 +33754,22 @@
         <v>101.8714643335473</v>
       </c>
       <c r="P36" t="n">
-        <v>81.76083127461391</v>
+        <v>81.76083127461393</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.65495046663519</v>
+        <v>54.65495046663522</v>
       </c>
       <c r="R36" t="n">
-        <v>26.58381936523117</v>
+        <v>26.58381936523119</v>
       </c>
       <c r="S36" t="n">
-        <v>7.952986367035455</v>
+        <v>7.952986367035458</v>
       </c>
       <c r="T36" t="n">
-        <v>1.725807431240988</v>
+        <v>1.725807431240989</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02816878288206185</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3589595720271487</v>
+        <v>0.3589595720271488</v>
       </c>
       <c r="H37" t="n">
-        <v>3.191476922205015</v>
+        <v>3.191476922205017</v>
       </c>
       <c r="I37" t="n">
         <v>10.79489331150735</v>
       </c>
       <c r="J37" t="n">
-        <v>25.37844174231941</v>
+        <v>25.37844174231942</v>
       </c>
       <c r="K37" t="n">
-        <v>41.70457573188145</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L37" t="n">
-        <v>53.36749855392718</v>
+        <v>53.36749855392721</v>
       </c>
       <c r="M37" t="n">
-        <v>56.26854454967386</v>
+        <v>56.26854454967388</v>
       </c>
       <c r="N37" t="n">
-        <v>54.93060432666362</v>
+        <v>54.93060432666364</v>
       </c>
       <c r="O37" t="n">
-        <v>50.73730387161918</v>
+        <v>50.7373038716192</v>
       </c>
       <c r="P37" t="n">
-        <v>43.41452860226531</v>
+        <v>43.41452860226533</v>
       </c>
       <c r="Q37" t="n">
-        <v>30.05796925401879</v>
+        <v>30.0579692540188</v>
       </c>
       <c r="R37" t="n">
-        <v>16.14012766587524</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S37" t="n">
-        <v>6.255686359782216</v>
+        <v>6.255686359782219</v>
       </c>
       <c r="T37" t="n">
-        <v>1.533736353206907</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01957961301966268</v>
+        <v>0.01957961301966269</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8002387900833643</v>
+        <v>0.8002387900833646</v>
       </c>
       <c r="H38" t="n">
-        <v>8.195445508941257</v>
+        <v>8.19544550894126</v>
       </c>
       <c r="I38" t="n">
-        <v>30.85120595468893</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J38" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983802</v>
       </c>
       <c r="K38" t="n">
-        <v>101.7933749940668</v>
+        <v>101.7933749940669</v>
       </c>
       <c r="L38" t="n">
-        <v>126.2836828660806</v>
+        <v>126.2836828660807</v>
       </c>
       <c r="M38" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N38" t="n">
-        <v>142.78860791155</v>
+        <v>142.7886079115501</v>
       </c>
       <c r="O38" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P38" t="n">
         <v>115.0753383124755</v>
       </c>
       <c r="Q38" t="n">
-        <v>86.41678664261497</v>
+        <v>86.41678664261499</v>
       </c>
       <c r="R38" t="n">
-        <v>50.26799989757418</v>
+        <v>50.2679998975742</v>
       </c>
       <c r="S38" t="n">
-        <v>18.23544142902468</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T38" t="n">
-        <v>3.503045303589929</v>
+        <v>3.50304530358993</v>
       </c>
       <c r="U38" t="n">
-        <v>0.06401910320666913</v>
+        <v>0.06401910320666916</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.42816549980734</v>
+        <v>0.4281654998073402</v>
       </c>
       <c r="H39" t="n">
-        <v>4.135177327086679</v>
+        <v>4.135177327086681</v>
       </c>
       <c r="I39" t="n">
         <v>14.74166304161237</v>
       </c>
       <c r="J39" t="n">
-        <v>40.45225013749962</v>
+        <v>40.45225013749963</v>
       </c>
       <c r="K39" t="n">
-        <v>69.13933862459139</v>
+        <v>69.13933862459142</v>
       </c>
       <c r="L39" t="n">
-        <v>92.96637310509811</v>
+        <v>92.96637310509814</v>
       </c>
       <c r="M39" t="n">
         <v>108.4873724731142</v>
@@ -33991,22 +33991,22 @@
         <v>101.8714643335473</v>
       </c>
       <c r="P39" t="n">
-        <v>81.76083127461391</v>
+        <v>81.76083127461393</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.65495046663519</v>
+        <v>54.65495046663522</v>
       </c>
       <c r="R39" t="n">
-        <v>26.58381936523117</v>
+        <v>26.58381936523119</v>
       </c>
       <c r="S39" t="n">
-        <v>7.952986367035455</v>
+        <v>7.952986367035458</v>
       </c>
       <c r="T39" t="n">
-        <v>1.725807431240988</v>
+        <v>1.725807431240989</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02816878288206185</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3589595720271487</v>
+        <v>0.3589595720271488</v>
       </c>
       <c r="H40" t="n">
-        <v>3.191476922205015</v>
+        <v>3.191476922205017</v>
       </c>
       <c r="I40" t="n">
         <v>10.79489331150735</v>
       </c>
       <c r="J40" t="n">
-        <v>25.37844174231941</v>
+        <v>25.37844174231942</v>
       </c>
       <c r="K40" t="n">
-        <v>41.70457573188145</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L40" t="n">
-        <v>53.36749855392718</v>
+        <v>53.36749855392721</v>
       </c>
       <c r="M40" t="n">
-        <v>56.26854454967386</v>
+        <v>56.26854454967388</v>
       </c>
       <c r="N40" t="n">
-        <v>54.93060432666362</v>
+        <v>54.93060432666364</v>
       </c>
       <c r="O40" t="n">
-        <v>50.73730387161918</v>
+        <v>50.7373038716192</v>
       </c>
       <c r="P40" t="n">
-        <v>43.41452860226531</v>
+        <v>43.41452860226533</v>
       </c>
       <c r="Q40" t="n">
-        <v>30.05796925401879</v>
+        <v>30.0579692540188</v>
       </c>
       <c r="R40" t="n">
-        <v>16.14012766587524</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S40" t="n">
-        <v>6.255686359782216</v>
+        <v>6.255686359782219</v>
       </c>
       <c r="T40" t="n">
-        <v>1.533736353206907</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01957961301966268</v>
+        <v>0.01957961301966269</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8002387900833643</v>
+        <v>0.8002387900833646</v>
       </c>
       <c r="H41" t="n">
-        <v>8.195445508941257</v>
+        <v>8.19544550894126</v>
       </c>
       <c r="I41" t="n">
-        <v>30.85120595468893</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J41" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983802</v>
       </c>
       <c r="K41" t="n">
-        <v>101.7933749940668</v>
+        <v>101.7933749940669</v>
       </c>
       <c r="L41" t="n">
-        <v>126.2836828660806</v>
+        <v>126.2836828660807</v>
       </c>
       <c r="M41" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N41" t="n">
-        <v>142.78860791155</v>
+        <v>142.7886079115501</v>
       </c>
       <c r="O41" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P41" t="n">
         <v>115.0753383124755</v>
       </c>
       <c r="Q41" t="n">
-        <v>86.41678664261497</v>
+        <v>86.41678664261499</v>
       </c>
       <c r="R41" t="n">
-        <v>50.26799989757418</v>
+        <v>50.2679998975742</v>
       </c>
       <c r="S41" t="n">
-        <v>18.23544142902468</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T41" t="n">
-        <v>3.503045303589929</v>
+        <v>3.50304530358993</v>
       </c>
       <c r="U41" t="n">
-        <v>0.06401910320666913</v>
+        <v>0.06401910320666916</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.42816549980734</v>
+        <v>0.4281654998073402</v>
       </c>
       <c r="H42" t="n">
-        <v>4.135177327086679</v>
+        <v>4.135177327086681</v>
       </c>
       <c r="I42" t="n">
         <v>14.74166304161237</v>
       </c>
       <c r="J42" t="n">
-        <v>40.45225013749962</v>
+        <v>40.45225013749963</v>
       </c>
       <c r="K42" t="n">
-        <v>69.13933862459139</v>
+        <v>69.13933862459142</v>
       </c>
       <c r="L42" t="n">
-        <v>92.96637310509811</v>
+        <v>92.96637310509814</v>
       </c>
       <c r="M42" t="n">
         <v>108.4873724731142</v>
@@ -34228,22 +34228,22 @@
         <v>101.8714643335473</v>
       </c>
       <c r="P42" t="n">
-        <v>81.76083127461391</v>
+        <v>81.76083127461393</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.65495046663519</v>
+        <v>54.65495046663522</v>
       </c>
       <c r="R42" t="n">
-        <v>26.58381936523117</v>
+        <v>26.58381936523119</v>
       </c>
       <c r="S42" t="n">
-        <v>7.952986367035455</v>
+        <v>7.952986367035458</v>
       </c>
       <c r="T42" t="n">
-        <v>1.725807431240988</v>
+        <v>1.725807431240989</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02816878288206185</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3589595720271487</v>
+        <v>0.3589595720271488</v>
       </c>
       <c r="H43" t="n">
-        <v>3.191476922205015</v>
+        <v>3.191476922205017</v>
       </c>
       <c r="I43" t="n">
         <v>10.79489331150735</v>
       </c>
       <c r="J43" t="n">
-        <v>25.37844174231941</v>
+        <v>25.37844174231942</v>
       </c>
       <c r="K43" t="n">
-        <v>41.70457573188145</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L43" t="n">
-        <v>53.36749855392718</v>
+        <v>53.36749855392721</v>
       </c>
       <c r="M43" t="n">
-        <v>56.26854454967386</v>
+        <v>56.26854454967388</v>
       </c>
       <c r="N43" t="n">
-        <v>54.93060432666362</v>
+        <v>54.93060432666364</v>
       </c>
       <c r="O43" t="n">
-        <v>50.73730387161918</v>
+        <v>50.7373038716192</v>
       </c>
       <c r="P43" t="n">
-        <v>43.41452860226531</v>
+        <v>43.41452860226533</v>
       </c>
       <c r="Q43" t="n">
-        <v>30.05796925401879</v>
+        <v>30.0579692540188</v>
       </c>
       <c r="R43" t="n">
-        <v>16.14012766587524</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S43" t="n">
-        <v>6.255686359782216</v>
+        <v>6.255686359782219</v>
       </c>
       <c r="T43" t="n">
-        <v>1.533736353206907</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01957961301966268</v>
+        <v>0.01957961301966269</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8002387900833643</v>
+        <v>0.8002387900833646</v>
       </c>
       <c r="H44" t="n">
-        <v>8.195445508941257</v>
+        <v>8.19544550894126</v>
       </c>
       <c r="I44" t="n">
-        <v>30.85120595468893</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J44" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983802</v>
       </c>
       <c r="K44" t="n">
-        <v>101.7933749940668</v>
+        <v>101.7933749940669</v>
       </c>
       <c r="L44" t="n">
-        <v>126.2836828660806</v>
+        <v>126.2836828660807</v>
       </c>
       <c r="M44" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N44" t="n">
-        <v>142.78860791155</v>
+        <v>142.7886079115501</v>
       </c>
       <c r="O44" t="n">
-        <v>134.8312334426585</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P44" t="n">
         <v>115.0753383124755</v>
       </c>
       <c r="Q44" t="n">
-        <v>86.41678664261497</v>
+        <v>86.41678664261499</v>
       </c>
       <c r="R44" t="n">
-        <v>50.26799989757418</v>
+        <v>50.2679998975742</v>
       </c>
       <c r="S44" t="n">
-        <v>18.23544142902468</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T44" t="n">
-        <v>3.503045303589929</v>
+        <v>3.50304530358993</v>
       </c>
       <c r="U44" t="n">
-        <v>0.06401910320666913</v>
+        <v>0.06401910320666916</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,22 +34438,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.42816549980734</v>
+        <v>0.4281654998073402</v>
       </c>
       <c r="H45" t="n">
-        <v>4.135177327086679</v>
+        <v>4.135177327086681</v>
       </c>
       <c r="I45" t="n">
         <v>14.74166304161237</v>
       </c>
       <c r="J45" t="n">
-        <v>40.45225013749962</v>
+        <v>40.45225013749963</v>
       </c>
       <c r="K45" t="n">
-        <v>69.13933862459139</v>
+        <v>69.13933862459142</v>
       </c>
       <c r="L45" t="n">
-        <v>92.96637310509811</v>
+        <v>92.96637310509814</v>
       </c>
       <c r="M45" t="n">
         <v>108.4873724731142</v>
@@ -34465,22 +34465,22 @@
         <v>101.8714643335473</v>
       </c>
       <c r="P45" t="n">
-        <v>81.76083127461391</v>
+        <v>81.76083127461393</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.65495046663519</v>
+        <v>54.65495046663522</v>
       </c>
       <c r="R45" t="n">
-        <v>26.58381936523117</v>
+        <v>26.58381936523119</v>
       </c>
       <c r="S45" t="n">
-        <v>7.952986367035455</v>
+        <v>7.952986367035458</v>
       </c>
       <c r="T45" t="n">
-        <v>1.725807431240988</v>
+        <v>1.725807431240989</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02816878288206185</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3589595720271487</v>
+        <v>0.3589595720271488</v>
       </c>
       <c r="H46" t="n">
-        <v>3.191476922205015</v>
+        <v>3.191476922205017</v>
       </c>
       <c r="I46" t="n">
         <v>10.79489331150735</v>
       </c>
       <c r="J46" t="n">
-        <v>25.37844174231941</v>
+        <v>25.37844174231942</v>
       </c>
       <c r="K46" t="n">
-        <v>41.70457573188145</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L46" t="n">
-        <v>53.36749855392718</v>
+        <v>53.36749855392721</v>
       </c>
       <c r="M46" t="n">
-        <v>56.26854454967386</v>
+        <v>56.26854454967388</v>
       </c>
       <c r="N46" t="n">
-        <v>54.93060432666362</v>
+        <v>54.93060432666364</v>
       </c>
       <c r="O46" t="n">
-        <v>50.73730387161918</v>
+        <v>50.7373038716192</v>
       </c>
       <c r="P46" t="n">
-        <v>43.41452860226531</v>
+        <v>43.41452860226533</v>
       </c>
       <c r="Q46" t="n">
-        <v>30.05796925401879</v>
+        <v>30.0579692540188</v>
       </c>
       <c r="R46" t="n">
-        <v>16.14012766587524</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S46" t="n">
-        <v>6.255686359782216</v>
+        <v>6.255686359782219</v>
       </c>
       <c r="T46" t="n">
-        <v>1.533736353206907</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01957961301966268</v>
+        <v>0.01957961301966269</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34707,22 +34707,22 @@
         <v>41.31500304752735</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="N2" t="n">
-        <v>41.31500304752736</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="P2" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>13.31876740878122</v>
       </c>
-      <c r="K3" t="n">
+      <c r="P3" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>41.31500304752734</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>41.31500304752736</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>39.64570999510201</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34953,13 +34953,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="R5" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K6" t="n">
+      <c r="N6" t="n">
         <v>41.31500304752736</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q6" t="n">
         <v>39.64570999510201</v>
       </c>
       <c r="R6" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
+        <v>41.31500304752736</v>
+      </c>
+      <c r="O7" t="n">
+        <v>39.64570999510201</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="O7" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="K8" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K8" t="n">
-        <v>41.31500304752736</v>
-      </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35196,7 +35196,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>13.31876740878122</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>41.31500304752734</v>
@@ -35275,7 +35275,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>41.31500304752734</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K10" t="n">
+      <c r="N10" t="n">
         <v>41.31500304752736</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="P10" t="n">
-        <v>41.31500304752734</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,13 +35406,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>30.43858447555753</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J11" t="n">
         <v>507.5704664572298</v>
       </c>
       <c r="K11" t="n">
-        <v>302.2483435303797</v>
+        <v>944.5714476790953</v>
       </c>
       <c r="L11" t="n">
         <v>126.2836828660807</v>
@@ -35424,7 +35424,7 @@
         <v>142.7886079115501</v>
       </c>
       <c r="O11" t="n">
-        <v>976.5861272830211</v>
+        <v>163.4003314645506</v>
       </c>
       <c r="P11" t="n">
         <v>951.7519795583303</v>
@@ -35433,7 +35433,7 @@
         <v>638.4357623583669</v>
       </c>
       <c r="R11" t="n">
-        <v>50.2679998975741</v>
+        <v>221.1306915673285</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>14.74166304161237</v>
+        <v>41.06860562793318</v>
       </c>
       <c r="J12" t="n">
-        <v>40.45225013749963</v>
+        <v>313.0313573970397</v>
       </c>
       <c r="K12" t="n">
         <v>69.1393386245914</v>
@@ -35497,22 +35497,22 @@
         <v>92.96637310509811</v>
       </c>
       <c r="M12" t="n">
-        <v>976.5861272830211</v>
+        <v>108.4873724731142</v>
       </c>
       <c r="N12" t="n">
         <v>111.3587104082258</v>
       </c>
       <c r="O12" t="n">
-        <v>101.8714643335472</v>
+        <v>101.8714643335474</v>
       </c>
       <c r="P12" t="n">
-        <v>177.1254159332098</v>
+        <v>81.76083127461391</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.65495046663523</v>
+        <v>600.8558985798429</v>
       </c>
       <c r="R12" t="n">
-        <v>26.58381936523119</v>
+        <v>144.9401608746653</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>112.8326691814001</v>
       </c>
       <c r="K13" t="n">
-        <v>319.238368227978</v>
+        <v>319.2383682279781</v>
       </c>
       <c r="L13" t="n">
         <v>475.8017225619687</v>
@@ -35585,7 +35585,7 @@
         <v>474.6456364229134</v>
       </c>
       <c r="P13" t="n">
-        <v>394.4315932187719</v>
+        <v>394.4315932187724</v>
       </c>
       <c r="Q13" t="n">
         <v>199.9496610361725</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>30.43858447555753</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J14" t="n">
         <v>507.5704664572298</v>
       </c>
       <c r="K14" t="n">
-        <v>101.7933749940668</v>
+        <v>944.5714476790953</v>
       </c>
       <c r="L14" t="n">
-        <v>976.5861272830209</v>
+        <v>126.2836828660807</v>
       </c>
       <c r="M14" t="n">
         <v>140.5149294492257</v>
       </c>
       <c r="N14" t="n">
-        <v>976.5861272830211</v>
+        <v>142.7886079115501</v>
       </c>
       <c r="O14" t="n">
-        <v>134.8312334426587</v>
+        <v>163.4003314645488</v>
       </c>
       <c r="P14" t="n">
-        <v>138.9991864768394</v>
+        <v>951.7519795583303</v>
       </c>
       <c r="Q14" t="n">
-        <v>638.4357623583674</v>
+        <v>638.4357623583669</v>
       </c>
       <c r="R14" t="n">
         <v>221.1306915673285</v>
@@ -35725,13 +35725,13 @@
         <v>14.74166304161237</v>
       </c>
       <c r="J15" t="n">
-        <v>368.2889420225626</v>
+        <v>339.3582999833606</v>
       </c>
       <c r="K15" t="n">
         <v>69.1393386245914</v>
       </c>
       <c r="L15" t="n">
-        <v>610.2366791791039</v>
+        <v>92.96637310509811</v>
       </c>
       <c r="M15" t="n">
         <v>108.4873724731142</v>
@@ -35740,13 +35740,13 @@
         <v>111.3587104082258</v>
       </c>
       <c r="O15" t="n">
-        <v>101.8714643335472</v>
+        <v>101.8714643335474</v>
       </c>
       <c r="P15" t="n">
-        <v>81.76083127461379</v>
+        <v>81.76083127461391</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.65495046663523</v>
+        <v>600.8558985798429</v>
       </c>
       <c r="R15" t="n">
         <v>144.9401608746653</v>
@@ -35816,10 +35816,10 @@
         <v>520.3936629142327</v>
       </c>
       <c r="N16" t="n">
-        <v>501.6566681222644</v>
+        <v>501.6566681222641</v>
       </c>
       <c r="O16" t="n">
-        <v>474.6456364229134</v>
+        <v>474.6456364229136</v>
       </c>
       <c r="P16" t="n">
         <v>394.4315932187719</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>30.43858447555753</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J17" t="n">
-        <v>67.91926700983799</v>
+        <v>507.5704664572298</v>
       </c>
       <c r="K17" t="n">
-        <v>944.5714476790952</v>
+        <v>944.5714476790951</v>
       </c>
       <c r="L17" t="n">
-        <v>126.2836828660807</v>
+        <v>1212.202840697252</v>
       </c>
       <c r="M17" t="n">
-        <v>140.5149294492257</v>
+        <v>245.8289928534914</v>
       </c>
       <c r="N17" t="n">
-        <v>1270.218137992564</v>
+        <v>142.7886079115501</v>
       </c>
       <c r="O17" t="n">
-        <v>1124.911704725796</v>
+        <v>134.8312334426587</v>
       </c>
       <c r="P17" t="n">
-        <v>951.7519795583298</v>
+        <v>951.7519795583303</v>
       </c>
       <c r="Q17" t="n">
-        <v>322.672873346798</v>
+        <v>638.4357623583674</v>
       </c>
       <c r="R17" t="n">
-        <v>50.26799989757455</v>
+        <v>221.1306915673285</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>14.74166304161237</v>
+        <v>41.06860562793318</v>
       </c>
       <c r="J18" t="n">
-        <v>368.2889420225626</v>
+        <v>368.2889420225625</v>
       </c>
       <c r="K18" t="n">
-        <v>69.13933862459135</v>
+        <v>69.13933862459146</v>
       </c>
       <c r="L18" t="n">
         <v>92.96637310509811</v>
@@ -35974,19 +35974,19 @@
         <v>108.4873724731142</v>
       </c>
       <c r="N18" t="n">
-        <v>111.3587104082256</v>
+        <v>111.3587104082258</v>
       </c>
       <c r="O18" t="n">
         <v>101.8714643335472</v>
       </c>
       <c r="P18" t="n">
-        <v>81.76083127461391</v>
+        <v>81.76083127461402</v>
       </c>
       <c r="Q18" t="n">
-        <v>571.9252565406414</v>
+        <v>600.8558985798429</v>
       </c>
       <c r="R18" t="n">
-        <v>144.9401608746653</v>
+        <v>89.68257624914258</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36047,16 +36047,16 @@
         <v>319.238368227978</v>
       </c>
       <c r="L19" t="n">
-        <v>475.8017225619691</v>
+        <v>475.8017225619687</v>
       </c>
       <c r="M19" t="n">
-        <v>520.3936629142326</v>
+        <v>520.3936629142324</v>
       </c>
       <c r="N19" t="n">
-        <v>501.6566681222641</v>
+        <v>501.6566681222644</v>
       </c>
       <c r="O19" t="n">
-        <v>474.6456364229136</v>
+        <v>474.6456364229134</v>
       </c>
       <c r="P19" t="n">
         <v>394.4315932187724</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>30.43858447555753</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J20" t="n">
         <v>507.5704664572298</v>
@@ -36126,25 +36126,25 @@
         <v>944.5714476790951</v>
       </c>
       <c r="L20" t="n">
-        <v>1212.202840697252</v>
+        <v>187.813695558179</v>
       </c>
       <c r="M20" t="n">
-        <v>1253.3683257691</v>
+        <v>1270.218137992564</v>
       </c>
       <c r="N20" t="n">
         <v>142.7886079115501</v>
       </c>
       <c r="O20" t="n">
-        <v>134.8312334426582</v>
+        <v>134.8312334426587</v>
       </c>
       <c r="P20" t="n">
-        <v>115.0753383124757</v>
+        <v>951.7519795583303</v>
       </c>
       <c r="Q20" t="n">
         <v>638.4357623583674</v>
       </c>
       <c r="R20" t="n">
-        <v>50.26799989757455</v>
+        <v>221.1306915673285</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>14.74166304161237</v>
+        <v>41.06860562793318</v>
       </c>
       <c r="J21" t="n">
-        <v>368.2889420225626</v>
+        <v>368.2889420225625</v>
       </c>
       <c r="K21" t="n">
-        <v>69.13933862459135</v>
+        <v>69.13933862459146</v>
       </c>
       <c r="L21" t="n">
         <v>92.96637310509811</v>
@@ -36211,19 +36211,19 @@
         <v>108.4873724731142</v>
       </c>
       <c r="N21" t="n">
-        <v>111.3587104082256</v>
+        <v>111.3587104082258</v>
       </c>
       <c r="O21" t="n">
         <v>101.8714643335472</v>
       </c>
       <c r="P21" t="n">
-        <v>81.76083127461391</v>
+        <v>81.76083127461402</v>
       </c>
       <c r="Q21" t="n">
-        <v>571.9252565406414</v>
+        <v>600.8558985798429</v>
       </c>
       <c r="R21" t="n">
-        <v>144.9401608746653</v>
+        <v>89.68257624914258</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36287,7 +36287,7 @@
         <v>475.8017225619687</v>
       </c>
       <c r="M22" t="n">
-        <v>520.3936629142324</v>
+        <v>520.3936629142329</v>
       </c>
       <c r="N22" t="n">
         <v>501.6566681222644</v>
@@ -36296,7 +36296,7 @@
         <v>474.6456364229134</v>
       </c>
       <c r="P22" t="n">
-        <v>394.4315932187728</v>
+        <v>394.4315932187719</v>
       </c>
       <c r="Q22" t="n">
         <v>199.9496610361725</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>30.43858447555753</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J23" t="n">
-        <v>67.91926700983799</v>
+        <v>507.5704664572298</v>
       </c>
       <c r="K23" t="n">
-        <v>101.7933749940668</v>
+        <v>944.5714476790951</v>
       </c>
       <c r="L23" t="n">
-        <v>1212.202840697252</v>
+        <v>126.2836828660807</v>
       </c>
       <c r="M23" t="n">
-        <v>1270.218137992564</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N23" t="n">
-        <v>1270.218137992564</v>
+        <v>343.9413578638491</v>
       </c>
       <c r="O23" t="n">
-        <v>134.8312334426582</v>
+        <v>1124.911704725796</v>
       </c>
       <c r="P23" t="n">
-        <v>805.2442438561693</v>
+        <v>951.7519795583303</v>
       </c>
       <c r="Q23" t="n">
-        <v>86.41678664261508</v>
+        <v>638.4357623583674</v>
       </c>
       <c r="R23" t="n">
-        <v>50.26799989757455</v>
+        <v>221.1306915673285</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>14.74166304161237</v>
+        <v>41.06860562793318</v>
       </c>
       <c r="J24" t="n">
-        <v>368.2889420225626</v>
+        <v>368.2889420225625</v>
       </c>
       <c r="K24" t="n">
-        <v>69.13933862459135</v>
+        <v>560.0827021122764</v>
       </c>
       <c r="L24" t="n">
-        <v>92.96637310509811</v>
+        <v>92.96637310509823</v>
       </c>
       <c r="M24" t="n">
         <v>108.4873724731142</v>
       </c>
       <c r="N24" t="n">
-        <v>111.3587104082256</v>
+        <v>111.3587104082258</v>
       </c>
       <c r="O24" t="n">
         <v>101.8714643335472</v>
       </c>
       <c r="P24" t="n">
-        <v>81.76083127461391</v>
+        <v>81.76083127461402</v>
       </c>
       <c r="Q24" t="n">
-        <v>600.8558985798429</v>
+        <v>54.65495046663523</v>
       </c>
       <c r="R24" t="n">
-        <v>116.0095188354637</v>
+        <v>144.9401608746653</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36521,16 +36521,16 @@
         <v>319.238368227978</v>
       </c>
       <c r="L25" t="n">
-        <v>475.8017225619691</v>
+        <v>475.8017225619687</v>
       </c>
       <c r="M25" t="n">
-        <v>520.3936629142326</v>
+        <v>520.3936629142324</v>
       </c>
       <c r="N25" t="n">
-        <v>501.6566681222641</v>
+        <v>501.6566681222644</v>
       </c>
       <c r="O25" t="n">
-        <v>474.6456364229136</v>
+        <v>474.6456364229134</v>
       </c>
       <c r="P25" t="n">
         <v>394.4315932187724</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>30.43858447555753</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J26" t="n">
-        <v>67.91926700983799</v>
+        <v>507.5704664572298</v>
       </c>
       <c r="K26" t="n">
-        <v>101.7933749940668</v>
+        <v>944.5714476790951</v>
       </c>
       <c r="L26" t="n">
-        <v>1212.202840697252</v>
+        <v>327.4364328183779</v>
       </c>
       <c r="M26" t="n">
-        <v>1270.218137992564</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N26" t="n">
-        <v>1270.218137992564</v>
+        <v>142.7886079115501</v>
       </c>
       <c r="O26" t="n">
-        <v>825.0001389863519</v>
+        <v>1124.911704725796</v>
       </c>
       <c r="P26" t="n">
-        <v>115.0753383124757</v>
+        <v>951.7519795583303</v>
       </c>
       <c r="Q26" t="n">
-        <v>86.41678664261508</v>
+        <v>638.4357623583674</v>
       </c>
       <c r="R26" t="n">
-        <v>50.26799989757455</v>
+        <v>221.1306915673285</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>14.74166304161237</v>
+        <v>41.06860562793317</v>
       </c>
       <c r="J27" t="n">
-        <v>40.4522501374996</v>
+        <v>368.2889420225626</v>
       </c>
       <c r="K27" t="n">
-        <v>69.1393386245914</v>
+        <v>69.13933862459146</v>
       </c>
       <c r="L27" t="n">
         <v>92.96637310509811</v>
@@ -36685,19 +36685,19 @@
         <v>108.4873724731142</v>
       </c>
       <c r="N27" t="n">
-        <v>111.3587104082256</v>
+        <v>111.3587104082258</v>
       </c>
       <c r="O27" t="n">
         <v>101.8714643335472</v>
       </c>
       <c r="P27" t="n">
-        <v>909.7640297384504</v>
+        <v>81.76083127461402</v>
       </c>
       <c r="Q27" t="n">
-        <v>190.1150914713019</v>
+        <v>545.5983139543202</v>
       </c>
       <c r="R27" t="n">
-        <v>26.58381936523119</v>
+        <v>144.9401608746653</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,25 +36752,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>112.8326691814001</v>
+        <v>112.8326691814</v>
       </c>
       <c r="K28" t="n">
-        <v>319.238368227978</v>
+        <v>319.2383682279783</v>
       </c>
       <c r="L28" t="n">
         <v>475.8017225619687</v>
       </c>
       <c r="M28" t="n">
-        <v>520.3936629142324</v>
+        <v>520.3936629142327</v>
       </c>
       <c r="N28" t="n">
-        <v>501.6566681222644</v>
+        <v>501.6566681222641</v>
       </c>
       <c r="O28" t="n">
-        <v>474.6456364229134</v>
+        <v>474.6456364229136</v>
       </c>
       <c r="P28" t="n">
-        <v>394.4315932187724</v>
+        <v>394.4315932187719</v>
       </c>
       <c r="Q28" t="n">
         <v>199.9496610361725</v>
@@ -36828,19 +36828,19 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>30.43858447555753</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J29" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983802</v>
       </c>
       <c r="K29" t="n">
-        <v>101.7933749940668</v>
+        <v>101.7933749940669</v>
       </c>
       <c r="L29" t="n">
-        <v>912.291274957808</v>
+        <v>1212.202840697252</v>
       </c>
       <c r="M29" t="n">
-        <v>1270.218137992564</v>
+        <v>970.3065722531205</v>
       </c>
       <c r="N29" t="n">
         <v>1270.218137992564</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>14.74166304161237</v>
+        <v>41.06860562793318</v>
       </c>
       <c r="J30" t="n">
-        <v>40.4522501374996</v>
+        <v>368.2889420225625</v>
       </c>
       <c r="K30" t="n">
-        <v>69.1393386245914</v>
+        <v>560.0827021122764</v>
       </c>
       <c r="L30" t="n">
-        <v>938.0733710641672</v>
+        <v>92.96637310509823</v>
       </c>
       <c r="M30" t="n">
         <v>108.4873724731142</v>
@@ -36928,7 +36928,7 @@
         <v>101.8714643335472</v>
       </c>
       <c r="P30" t="n">
-        <v>81.76083127461379</v>
+        <v>81.76083127461402</v>
       </c>
       <c r="Q30" t="n">
         <v>54.65495046663523</v>
@@ -36995,10 +36995,10 @@
         <v>319.238368227978</v>
       </c>
       <c r="L31" t="n">
-        <v>475.8017225619687</v>
+        <v>475.8017225619686</v>
       </c>
       <c r="M31" t="n">
-        <v>520.3936629142324</v>
+        <v>520.3936629142326</v>
       </c>
       <c r="N31" t="n">
         <v>501.6566681222644</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>30.43858447555753</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J32" t="n">
         <v>507.5704664572298</v>
@@ -37074,25 +37074,25 @@
         <v>944.5714476790951</v>
       </c>
       <c r="L32" t="n">
-        <v>1212.202840697252</v>
+        <v>126.2836828660807</v>
       </c>
       <c r="M32" t="n">
-        <v>1270.218137992564</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N32" t="n">
-        <v>142.7886079115497</v>
+        <v>343.9413578638482</v>
       </c>
       <c r="O32" t="n">
-        <v>134.8312334426582</v>
+        <v>1124.911704725796</v>
       </c>
       <c r="P32" t="n">
-        <v>650.2445018047638</v>
+        <v>951.7519795583303</v>
       </c>
       <c r="Q32" t="n">
-        <v>86.41678664261508</v>
+        <v>638.4357623583674</v>
       </c>
       <c r="R32" t="n">
-        <v>50.26799989757455</v>
+        <v>221.1306915673285</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>14.74166304161237</v>
+        <v>41.06860562793318</v>
       </c>
       <c r="J33" t="n">
-        <v>368.2889420225626</v>
+        <v>368.2889420225625</v>
       </c>
       <c r="K33" t="n">
-        <v>69.13933862459135</v>
+        <v>69.13933862459146</v>
       </c>
       <c r="L33" t="n">
         <v>92.96637310509811</v>
@@ -37159,19 +37159,19 @@
         <v>108.4873724731142</v>
       </c>
       <c r="N33" t="n">
-        <v>111.3587104082256</v>
+        <v>111.3587104082258</v>
       </c>
       <c r="O33" t="n">
         <v>101.8714643335472</v>
       </c>
       <c r="P33" t="n">
-        <v>81.76083127461391</v>
+        <v>81.76083127461402</v>
       </c>
       <c r="Q33" t="n">
         <v>600.8558985798429</v>
       </c>
       <c r="R33" t="n">
-        <v>116.0095188354637</v>
+        <v>89.68257624914258</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,16 +37302,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>30.43858447555753</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J35" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983802</v>
       </c>
       <c r="K35" t="n">
-        <v>101.7933749940668</v>
+        <v>887.8009670857934</v>
       </c>
       <c r="L35" t="n">
-        <v>126.2836828660806</v>
+        <v>126.2836828660807</v>
       </c>
       <c r="M35" t="n">
         <v>1270.218137992564</v>
@@ -37320,10 +37320,10 @@
         <v>1270.218137992564</v>
       </c>
       <c r="O35" t="n">
-        <v>1074.242655571669</v>
+        <v>1124.911704725796</v>
       </c>
       <c r="P35" t="n">
-        <v>951.7519795583303</v>
+        <v>115.0753383124757</v>
       </c>
       <c r="Q35" t="n">
         <v>86.41678664261508</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>14.74166304161237</v>
+        <v>41.06860562793317</v>
       </c>
       <c r="J36" t="n">
-        <v>368.2889420225626</v>
+        <v>313.03135739704</v>
       </c>
       <c r="K36" t="n">
         <v>69.1393386245914</v>
@@ -37396,16 +37396,16 @@
         <v>108.4873724731142</v>
       </c>
       <c r="N36" t="n">
-        <v>111.3587104082256</v>
+        <v>111.3587104082258</v>
       </c>
       <c r="O36" t="n">
-        <v>101.8714643335472</v>
+        <v>101.8714643335474</v>
       </c>
       <c r="P36" t="n">
-        <v>81.76083127461402</v>
+        <v>81.76083127461391</v>
       </c>
       <c r="Q36" t="n">
-        <v>571.9252565406412</v>
+        <v>600.8558985798429</v>
       </c>
       <c r="R36" t="n">
         <v>144.9401608746653</v>
@@ -37466,7 +37466,7 @@
         <v>112.8326691814001</v>
       </c>
       <c r="K37" t="n">
-        <v>319.238368227978</v>
+        <v>319.2383682279781</v>
       </c>
       <c r="L37" t="n">
         <v>475.8017225619687</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>30.43858447555753</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J38" t="n">
-        <v>67.91926700983799</v>
+        <v>507.5704664572298</v>
       </c>
       <c r="K38" t="n">
-        <v>101.7933749940668</v>
+        <v>944.5714476790951</v>
       </c>
       <c r="L38" t="n">
-        <v>126.2836828660806</v>
+        <v>126.2836828660807</v>
       </c>
       <c r="M38" t="n">
-        <v>1270.218137992564</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N38" t="n">
-        <v>1270.218137992564</v>
+        <v>343.9413578638491</v>
       </c>
       <c r="O38" t="n">
         <v>1124.911704725796</v>
       </c>
       <c r="P38" t="n">
-        <v>901.0829304042031</v>
+        <v>951.7519795583303</v>
       </c>
       <c r="Q38" t="n">
-        <v>86.41678664261508</v>
+        <v>638.4357623583674</v>
       </c>
       <c r="R38" t="n">
-        <v>50.26799989757455</v>
+        <v>221.1306915673285</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>14.74166304161237</v>
+        <v>41.06860562793318</v>
       </c>
       <c r="J39" t="n">
-        <v>368.2889420225626</v>
+        <v>368.2889420225625</v>
       </c>
       <c r="K39" t="n">
-        <v>69.1393386245914</v>
+        <v>69.13933862459146</v>
       </c>
       <c r="L39" t="n">
         <v>92.96637310509811</v>
@@ -37633,7 +37633,7 @@
         <v>108.4873724731142</v>
       </c>
       <c r="N39" t="n">
-        <v>111.3587104082256</v>
+        <v>111.3587104082258</v>
       </c>
       <c r="O39" t="n">
         <v>101.8714643335472</v>
@@ -37642,7 +37642,7 @@
         <v>81.76083127461402</v>
       </c>
       <c r="Q39" t="n">
-        <v>571.9252565406412</v>
+        <v>545.5983139543202</v>
       </c>
       <c r="R39" t="n">
         <v>144.9401608746653</v>
@@ -37712,13 +37712,13 @@
         <v>520.3936629142324</v>
       </c>
       <c r="N40" t="n">
-        <v>501.6566681222644</v>
+        <v>501.6566681222646</v>
       </c>
       <c r="O40" t="n">
-        <v>474.6456364229139</v>
+        <v>474.6456364229136</v>
       </c>
       <c r="P40" t="n">
-        <v>394.4315932187724</v>
+        <v>394.4315932187719</v>
       </c>
       <c r="Q40" t="n">
         <v>199.9496610361725</v>
@@ -37776,16 +37776,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>30.43858447555753</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J41" t="n">
         <v>507.5704664572298</v>
       </c>
       <c r="K41" t="n">
-        <v>302.2483435303806</v>
+        <v>944.5714476790953</v>
       </c>
       <c r="L41" t="n">
-        <v>126.2836828660807</v>
+        <v>976.5861272830202</v>
       </c>
       <c r="M41" t="n">
         <v>140.5149294492257</v>
@@ -37794,16 +37794,16 @@
         <v>142.7886079115501</v>
       </c>
       <c r="O41" t="n">
-        <v>976.5861272830211</v>
+        <v>134.8312334426587</v>
       </c>
       <c r="P41" t="n">
-        <v>951.7519795583303</v>
+        <v>130.0186331632799</v>
       </c>
       <c r="Q41" t="n">
-        <v>638.4357623583669</v>
+        <v>638.4357623583674</v>
       </c>
       <c r="R41" t="n">
-        <v>50.2679998975741</v>
+        <v>221.1306915673285</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>14.74166304161237</v>
+        <v>41.0686056279332</v>
       </c>
       <c r="J42" t="n">
-        <v>339.3582999833612</v>
+        <v>313.0313573970398</v>
       </c>
       <c r="K42" t="n">
         <v>69.1393386245914</v>
@@ -37870,10 +37870,10 @@
         <v>108.4873724731142</v>
       </c>
       <c r="N42" t="n">
-        <v>111.3587104082256</v>
+        <v>111.3587104082258</v>
       </c>
       <c r="O42" t="n">
-        <v>101.8714643335472</v>
+        <v>101.8714643335474</v>
       </c>
       <c r="P42" t="n">
         <v>81.76083127461391</v>
@@ -37943,19 +37943,19 @@
         <v>319.238368227978</v>
       </c>
       <c r="L43" t="n">
-        <v>475.8017225619687</v>
+        <v>475.8017225619688</v>
       </c>
       <c r="M43" t="n">
         <v>520.3936629142327</v>
       </c>
       <c r="N43" t="n">
-        <v>501.6566681222639</v>
+        <v>501.6566681222641</v>
       </c>
       <c r="O43" t="n">
-        <v>474.6456364229134</v>
+        <v>474.6456364229136</v>
       </c>
       <c r="P43" t="n">
-        <v>394.4315932187724</v>
+        <v>394.4315932187719</v>
       </c>
       <c r="Q43" t="n">
         <v>199.9496610361725</v>
@@ -38013,13 +38013,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>30.43858447555753</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J44" t="n">
         <v>507.5704664572298</v>
       </c>
       <c r="K44" t="n">
-        <v>944.5714476790953</v>
+        <v>131.3856518606229</v>
       </c>
       <c r="L44" t="n">
         <v>126.2836828660807</v>
@@ -38031,16 +38031,16 @@
         <v>142.7886079115501</v>
       </c>
       <c r="O44" t="n">
-        <v>976.5861272830211</v>
+        <v>976.5861272830202</v>
       </c>
       <c r="P44" t="n">
-        <v>861.4478511253674</v>
+        <v>951.7519795583303</v>
       </c>
       <c r="Q44" t="n">
-        <v>86.41678664261508</v>
+        <v>638.4357623583674</v>
       </c>
       <c r="R44" t="n">
-        <v>50.2679998975741</v>
+        <v>221.1306915673285</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>14.74166304161237</v>
+        <v>41.0686056279332</v>
       </c>
       <c r="J45" t="n">
         <v>368.2889420225626</v>
       </c>
       <c r="K45" t="n">
-        <v>69.1393386245914</v>
+        <v>69.13933862459146</v>
       </c>
       <c r="L45" t="n">
         <v>92.96637310509811</v>
@@ -38107,19 +38107,19 @@
         <v>108.4873724731142</v>
       </c>
       <c r="N45" t="n">
-        <v>111.3587104082256</v>
+        <v>111.3587104082258</v>
       </c>
       <c r="O45" t="n">
         <v>101.8714643335472</v>
       </c>
       <c r="P45" t="n">
-        <v>81.76083127461379</v>
+        <v>81.76083127461402</v>
       </c>
       <c r="Q45" t="n">
-        <v>571.9252565406416</v>
+        <v>600.8558985798429</v>
       </c>
       <c r="R45" t="n">
-        <v>144.9401608746653</v>
+        <v>89.68257624914236</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>112.8326691814001</v>
       </c>
       <c r="K46" t="n">
-        <v>319.238368227978</v>
+        <v>319.2383682279781</v>
       </c>
       <c r="L46" t="n">
         <v>475.8017225619687</v>
